--- a/BackTest/2019-10-18 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-18 BackTest ZRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>9</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-100</v>
+      </c>
       <c r="L12" t="n">
         <v>371.2</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>9</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-100</v>
+      </c>
       <c r="L13" t="n">
         <v>370.4</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>9</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-100</v>
+      </c>
       <c r="L14" t="n">
         <v>369.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>9</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
       <c r="L15" t="n">
         <v>368.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>9</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-100</v>
+      </c>
       <c r="L16" t="n">
         <v>368.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>9</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-100</v>
+      </c>
       <c r="L17" t="n">
         <v>367.9</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>12</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-100</v>
+      </c>
       <c r="L18" t="n">
         <v>367.2</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>12</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-100</v>
+      </c>
       <c r="L19" t="n">
         <v>366.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>15</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-100</v>
+      </c>
       <c r="L20" t="n">
         <v>365.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-20</v>
+      </c>
       <c r="L21" t="n">
         <v>365.6</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>21</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>365.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>-60</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>364.8</v>
@@ -1466,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="K24" t="n">
-        <v>-61.90476190476191</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L24" t="n">
         <v>364.3</v>
@@ -1515,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>-54.54545454545454</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L25" t="n">
         <v>363.9</v>
@@ -1564,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="K26" t="n">
-        <v>-47.36842105263158</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L26" t="n">
         <v>363.5</v>
@@ -1613,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="K27" t="n">
-        <v>-23.80952380952381</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L27" t="n">
         <v>363.4</v>
@@ -1662,7 +1684,7 @@
         <v>27</v>
       </c>
       <c r="K28" t="n">
-        <v>-27.27272727272727</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L28" t="n">
         <v>363.5</v>
@@ -1711,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="K29" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L29" t="n">
         <v>363.4</v>
@@ -1760,7 +1782,7 @@
         <v>32</v>
       </c>
       <c r="K30" t="n">
-        <v>-12</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L30" t="n">
         <v>363.9</v>
@@ -1809,7 +1831,7 @@
         <v>33</v>
       </c>
       <c r="K31" t="n">
-        <v>-12</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L31" t="n">
         <v>363.9</v>
@@ -1860,7 +1882,7 @@
         <v>35</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L32" t="n">
         <v>364.3</v>
@@ -1911,7 +1933,7 @@
         <v>37</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.142857142857142</v>
+        <v>20</v>
       </c>
       <c r="L33" t="n">
         <v>364.5</v>
@@ -1962,7 +1984,7 @@
         <v>37</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.142857142857142</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L34" t="n">
         <v>364.8</v>
@@ -2013,7 +2035,7 @@
         <v>38</v>
       </c>
       <c r="K35" t="n">
-        <v>-10.3448275862069</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L35" t="n">
         <v>364.9</v>
@@ -2064,7 +2086,7 @@
         <v>38</v>
       </c>
       <c r="K36" t="n">
-        <v>-10.3448275862069</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L36" t="n">
         <v>365</v>
@@ -2115,7 +2137,7 @@
         <v>38</v>
       </c>
       <c r="K37" t="n">
-        <v>-10.3448275862069</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L37" t="n">
         <v>364.8</v>
@@ -2166,7 +2188,7 @@
         <v>39</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>364.6</v>
@@ -2217,7 +2239,7 @@
         <v>41</v>
       </c>
       <c r="K39" t="n">
-        <v>3.448275862068965</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L39" t="n">
         <v>364.8</v>
@@ -2268,7 +2290,7 @@
         <v>41</v>
       </c>
       <c r="K40" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>364.7</v>
@@ -2319,7 +2341,7 @@
         <v>42</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.347826086956522</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L41" t="n">
         <v>364.6</v>
@@ -2370,7 +2392,7 @@
         <v>43</v>
       </c>
       <c r="K42" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>364.4</v>
@@ -2421,7 +2443,7 @@
         <v>43</v>
       </c>
       <c r="K43" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>364.4</v>
@@ -2472,7 +2494,7 @@
         <v>43</v>
       </c>
       <c r="K44" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
         <v>364.4</v>
@@ -2523,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="K45" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>364.6</v>
@@ -2574,7 +2596,7 @@
         <v>44</v>
       </c>
       <c r="K46" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>364.8</v>
@@ -2625,7 +2647,7 @@
         <v>45</v>
       </c>
       <c r="K47" t="n">
-        <v>5.263157894736842</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L47" t="n">
         <v>365.1</v>
@@ -2676,7 +2698,7 @@
         <v>45</v>
       </c>
       <c r="K48" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L48" t="n">
         <v>365.5</v>
@@ -2727,7 +2749,7 @@
         <v>46</v>
       </c>
       <c r="K49" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L49" t="n">
         <v>365.6</v>
@@ -2778,7 +2800,7 @@
         <v>48</v>
       </c>
       <c r="K50" t="n">
-        <v>12.5</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L50" t="n">
         <v>365.9</v>
@@ -2829,7 +2851,7 @@
         <v>49</v>
       </c>
       <c r="K51" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>366.2</v>
@@ -2880,7 +2902,7 @@
         <v>51</v>
       </c>
       <c r="K52" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>366.2</v>
@@ -2982,7 +3004,7 @@
         <v>52</v>
       </c>
       <c r="K54" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>366.3</v>
@@ -3033,7 +3055,7 @@
         <v>52</v>
       </c>
       <c r="K55" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>366.3</v>
@@ -3084,7 +3106,7 @@
         <v>52</v>
       </c>
       <c r="K56" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>366.3</v>
@@ -3135,7 +3157,7 @@
         <v>52</v>
       </c>
       <c r="K57" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>366.2</v>
@@ -3186,7 +3208,7 @@
         <v>52</v>
       </c>
       <c r="K58" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>366.1</v>
@@ -3237,7 +3259,7 @@
         <v>52</v>
       </c>
       <c r="K59" t="n">
-        <v>9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L59" t="n">
         <v>366.1</v>
@@ -3288,7 +3310,7 @@
         <v>52</v>
       </c>
       <c r="K60" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>365.9</v>
@@ -3339,7 +3361,7 @@
         <v>52</v>
       </c>
       <c r="K61" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L61" t="n">
         <v>365.8</v>
@@ -3390,7 +3412,7 @@
         <v>52</v>
       </c>
       <c r="K62" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L62" t="n">
         <v>365.9</v>
@@ -3440,9 +3462,7 @@
       <c r="J63" t="n">
         <v>52</v>
       </c>
-      <c r="K63" t="n">
-        <v>11.11111111111111</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>366</v>
       </c>
@@ -3491,9 +3511,7 @@
       <c r="J64" t="n">
         <v>52</v>
       </c>
-      <c r="K64" t="n">
-        <v>11.11111111111111</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>366</v>
       </c>
@@ -3542,9 +3560,7 @@
       <c r="J65" t="n">
         <v>52</v>
       </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>366</v>
       </c>
@@ -3594,7 +3610,7 @@
         <v>53</v>
       </c>
       <c r="K66" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
         <v>366.1</v>
@@ -3645,7 +3661,7 @@
         <v>54</v>
       </c>
       <c r="K67" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
         <v>366.3</v>
@@ -3696,7 +3712,7 @@
         <v>55</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>366.4</v>
@@ -3747,7 +3763,7 @@
         <v>55</v>
       </c>
       <c r="K69" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>366.5</v>
@@ -3798,7 +3814,7 @@
         <v>57</v>
       </c>
       <c r="K70" t="n">
-        <v>11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L70" t="n">
         <v>366.8</v>
@@ -3849,7 +3865,7 @@
         <v>58</v>
       </c>
       <c r="K71" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L71" t="n">
         <v>367.2</v>
@@ -3900,7 +3916,7 @@
         <v>58</v>
       </c>
       <c r="K72" t="n">
-        <v>71.42857142857143</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L72" t="n">
         <v>367.6</v>
@@ -3951,7 +3967,7 @@
         <v>59</v>
       </c>
       <c r="K73" t="n">
-        <v>75</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L73" t="n">
         <v>368.1</v>
@@ -4053,7 +4069,7 @@
         <v>60</v>
       </c>
       <c r="K75" t="n">
-        <v>75</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L75" t="n">
         <v>369.2</v>
@@ -4104,7 +4120,7 @@
         <v>61</v>
       </c>
       <c r="K76" t="n">
-        <v>77.77777777777779</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L76" t="n">
         <v>369.8</v>
@@ -4155,7 +4171,7 @@
         <v>61</v>
       </c>
       <c r="K77" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>370.3</v>
@@ -4206,7 +4222,7 @@
         <v>63</v>
       </c>
       <c r="K78" t="n">
-        <v>45.45454545454545</v>
+        <v>50</v>
       </c>
       <c r="L78" t="n">
         <v>370.7</v>
@@ -4257,7 +4273,7 @@
         <v>66</v>
       </c>
       <c r="K79" t="n">
-        <v>57.14285714285714</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L79" t="n">
         <v>371.4</v>
@@ -4308,7 +4324,7 @@
         <v>67</v>
       </c>
       <c r="K80" t="n">
-        <v>46.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>371.8</v>
@@ -4359,7 +4375,7 @@
         <v>67</v>
       </c>
       <c r="K81" t="n">
-        <v>46.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>372.1</v>
@@ -4410,7 +4426,7 @@
         <v>68</v>
       </c>
       <c r="K82" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>372.5</v>
@@ -4461,7 +4477,7 @@
         <v>69</v>
       </c>
       <c r="K83" t="n">
-        <v>41.17647058823529</v>
+        <v>20</v>
       </c>
       <c r="L83" t="n">
         <v>372.7</v>
@@ -4512,7 +4528,7 @@
         <v>70</v>
       </c>
       <c r="K84" t="n">
-        <v>44.44444444444444</v>
+        <v>20</v>
       </c>
       <c r="L84" t="n">
         <v>373</v>
@@ -4563,7 +4579,7 @@
         <v>71</v>
       </c>
       <c r="K85" t="n">
-        <v>47.36842105263158</v>
+        <v>20</v>
       </c>
       <c r="L85" t="n">
         <v>373.3</v>
@@ -4614,7 +4630,7 @@
         <v>72</v>
       </c>
       <c r="K86" t="n">
-        <v>36.84210526315789</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L86" t="n">
         <v>373.4</v>
@@ -4716,7 +4732,7 @@
         <v>72</v>
       </c>
       <c r="K88" t="n">
-        <v>41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>373.8</v>
@@ -4767,7 +4783,7 @@
         <v>73</v>
       </c>
       <c r="K89" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>373.7</v>
@@ -4818,7 +4834,7 @@
         <v>77</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L90" t="n">
         <v>373.3</v>
@@ -4869,7 +4885,7 @@
         <v>81</v>
       </c>
       <c r="K91" t="n">
-        <v>-21.73913043478261</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L91" t="n">
         <v>372.5</v>
@@ -4920,7 +4936,7 @@
         <v>81</v>
       </c>
       <c r="K92" t="n">
-        <v>-21.73913043478261</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L92" t="n">
         <v>371.6</v>
@@ -4971,7 +4987,7 @@
         <v>82</v>
       </c>
       <c r="K93" t="n">
-        <v>-30.43478260869566</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L93" t="n">
         <v>370.7</v>
@@ -5022,7 +5038,7 @@
         <v>83</v>
       </c>
       <c r="K94" t="n">
-        <v>-25</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L94" t="n">
         <v>369.8</v>
@@ -5073,7 +5089,7 @@
         <v>84</v>
       </c>
       <c r="K95" t="n">
-        <v>-25</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L95" t="n">
         <v>368.9</v>
@@ -5124,7 +5140,7 @@
         <v>85</v>
       </c>
       <c r="K96" t="n">
-        <v>-33.33333333333333</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L96" t="n">
         <v>368</v>
@@ -5175,7 +5191,7 @@
         <v>86</v>
       </c>
       <c r="K97" t="n">
-        <v>-36</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L97" t="n">
         <v>367</v>
@@ -5226,7 +5242,7 @@
         <v>87</v>
       </c>
       <c r="K98" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L98" t="n">
         <v>365.9</v>
@@ -5328,7 +5344,7 @@
         <v>90</v>
       </c>
       <c r="K100" t="n">
-        <v>-47.82608695652174</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>364.3</v>
@@ -5379,7 +5395,7 @@
         <v>91</v>
       </c>
       <c r="K101" t="n">
-        <v>-41.66666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L101" t="n">
         <v>364.1</v>
@@ -5430,7 +5446,7 @@
         <v>91</v>
       </c>
       <c r="K102" t="n">
-        <v>-47.82608695652174</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L102" t="n">
         <v>363.9</v>
@@ -5481,7 +5497,7 @@
         <v>91</v>
       </c>
       <c r="K103" t="n">
-        <v>-45.45454545454545</v>
+        <v>-25</v>
       </c>
       <c r="L103" t="n">
         <v>363.8</v>
@@ -5532,7 +5548,7 @@
         <v>96</v>
       </c>
       <c r="K104" t="n">
-        <v>-23.07692307692308</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L104" t="n">
         <v>364.1</v>
@@ -5583,7 +5599,7 @@
         <v>100</v>
       </c>
       <c r="K105" t="n">
-        <v>-10.3448275862069</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L105" t="n">
         <v>364.7</v>
@@ -5634,7 +5650,7 @@
         <v>102</v>
       </c>
       <c r="K106" t="n">
-        <v>-13.33333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="L106" t="n">
         <v>365.2</v>
@@ -5685,7 +5701,7 @@
         <v>104</v>
       </c>
       <c r="K107" t="n">
-        <v>-6.25</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L107" t="n">
         <v>366</v>
@@ -5736,7 +5752,7 @@
         <v>105</v>
       </c>
       <c r="K108" t="n">
-        <v>-3.03030303030303</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L108" t="n">
         <v>367</v>
@@ -5787,7 +5803,7 @@
         <v>107</v>
       </c>
       <c r="K109" t="n">
-        <v>-5.88235294117647</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L109" t="n">
         <v>367.7</v>
@@ -5838,7 +5854,7 @@
         <v>110</v>
       </c>
       <c r="K110" t="n">
-        <v>-3.03030303030303</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L110" t="n">
         <v>368.3</v>
@@ -5889,7 +5905,7 @@
         <v>112</v>
       </c>
       <c r="K111" t="n">
-        <v>16.12903225806452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>369</v>
@@ -5940,7 +5956,7 @@
         <v>112</v>
       </c>
       <c r="K112" t="n">
-        <v>16.12903225806452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>369.7</v>
@@ -5991,7 +6007,7 @@
         <v>112</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="L113" t="n">
         <v>370.4</v>
@@ -6042,7 +6058,7 @@
         <v>114</v>
       </c>
       <c r="K114" t="n">
-        <v>22.58064516129032</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>370.8</v>
@@ -6093,7 +6109,7 @@
         <v>114</v>
       </c>
       <c r="K115" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L115" t="n">
         <v>370.8</v>
@@ -6144,7 +6160,7 @@
         <v>117</v>
       </c>
       <c r="K116" t="n">
-        <v>12.5</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L116" t="n">
         <v>370.7</v>
@@ -6195,7 +6211,7 @@
         <v>117</v>
       </c>
       <c r="K117" t="n">
-        <v>16.12903225806452</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>370.4</v>
@@ -6246,7 +6262,7 @@
         <v>117</v>
       </c>
       <c r="K118" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L118" t="n">
         <v>370</v>
@@ -6297,7 +6313,7 @@
         <v>117</v>
       </c>
       <c r="K119" t="n">
-        <v>17.24137931034483</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L119" t="n">
         <v>369.8</v>
@@ -6348,7 +6364,7 @@
         <v>117</v>
       </c>
       <c r="K120" t="n">
-        <v>25.92592592592592</v>
+        <v>-20</v>
       </c>
       <c r="L120" t="n">
         <v>369.9</v>
@@ -6399,7 +6415,7 @@
         <v>118</v>
       </c>
       <c r="K121" t="n">
-        <v>25.92592592592592</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>369.9</v>
@@ -6450,7 +6466,7 @@
         <v>119</v>
       </c>
       <c r="K122" t="n">
-        <v>28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L122" t="n">
         <v>370</v>
@@ -6501,7 +6517,7 @@
         <v>119</v>
       </c>
       <c r="K123" t="n">
-        <v>28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L123" t="n">
         <v>370.1</v>
@@ -6552,7 +6568,7 @@
         <v>119</v>
       </c>
       <c r="K124" t="n">
-        <v>13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L124" t="n">
         <v>370</v>
@@ -6603,7 +6619,7 @@
         <v>120</v>
       </c>
       <c r="K125" t="n">
-        <v>-10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>369.8</v>
@@ -6654,7 +6670,7 @@
         <v>121</v>
       </c>
       <c r="K126" t="n">
-        <v>5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L126" t="n">
         <v>370</v>
@@ -6705,7 +6721,7 @@
         <v>121</v>
       </c>
       <c r="K127" t="n">
-        <v>-5.88235294117647</v>
+        <v>50</v>
       </c>
       <c r="L127" t="n">
         <v>370.2</v>
@@ -6756,7 +6772,7 @@
         <v>121</v>
       </c>
       <c r="K128" t="n">
-        <v>-12.5</v>
+        <v>50</v>
       </c>
       <c r="L128" t="n">
         <v>370.4</v>
@@ -6807,7 +6823,7 @@
         <v>122</v>
       </c>
       <c r="K129" t="n">
-        <v>-6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L129" t="n">
         <v>370.5</v>
@@ -6858,7 +6874,7 @@
         <v>124</v>
       </c>
       <c r="K130" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>370.8</v>
@@ -6909,7 +6925,7 @@
         <v>125</v>
       </c>
       <c r="K131" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>371.1</v>
@@ -6960,7 +6976,7 @@
         <v>125</v>
       </c>
       <c r="K132" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>371.3</v>
@@ -7011,7 +7027,7 @@
         <v>126</v>
       </c>
       <c r="K133" t="n">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L133" t="n">
         <v>371.6</v>
@@ -7062,7 +7078,7 @@
         <v>126</v>
       </c>
       <c r="K134" t="n">
-        <v>16.66666666666666</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L134" t="n">
         <v>371.9</v>
@@ -7113,7 +7129,7 @@
         <v>127</v>
       </c>
       <c r="K135" t="n">
-        <v>23.07692307692308</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L135" t="n">
         <v>372.4</v>
@@ -7164,7 +7180,7 @@
         <v>128</v>
       </c>
       <c r="K136" t="n">
-        <v>45.45454545454545</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L136" t="n">
         <v>372.7</v>
@@ -7215,7 +7231,7 @@
         <v>129</v>
       </c>
       <c r="K137" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L137" t="n">
         <v>372.9</v>
@@ -7266,7 +7282,7 @@
         <v>129</v>
       </c>
       <c r="K138" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L138" t="n">
         <v>373.1</v>
@@ -7317,7 +7333,7 @@
         <v>130</v>
       </c>
       <c r="K139" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>373.5</v>
@@ -7368,7 +7384,7 @@
         <v>132</v>
       </c>
       <c r="K140" t="n">
-        <v>46.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L140" t="n">
         <v>373.9</v>
@@ -7470,7 +7486,7 @@
         <v>133</v>
       </c>
       <c r="K142" t="n">
-        <v>28.57142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>374.4</v>
@@ -7521,7 +7537,7 @@
         <v>134</v>
       </c>
       <c r="K143" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L143" t="n">
         <v>374.6</v>
@@ -7572,7 +7588,7 @@
         <v>135</v>
       </c>
       <c r="K144" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>374.7</v>
@@ -7623,7 +7639,7 @@
         <v>135</v>
       </c>
       <c r="K145" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L145" t="n">
         <v>374.7</v>
@@ -7674,7 +7690,7 @@
         <v>135</v>
       </c>
       <c r="K146" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>374.8</v>
@@ -7725,7 +7741,7 @@
         <v>136</v>
       </c>
       <c r="K147" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L147" t="n">
         <v>375.1</v>
@@ -7776,7 +7792,7 @@
         <v>137</v>
       </c>
       <c r="K148" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L148" t="n">
         <v>375.3</v>
@@ -7827,7 +7843,7 @@
         <v>138</v>
       </c>
       <c r="K149" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>375.5</v>
@@ -7878,7 +7894,7 @@
         <v>139</v>
       </c>
       <c r="K150" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L150" t="n">
         <v>375.4</v>
@@ -7929,7 +7945,7 @@
         <v>139</v>
       </c>
       <c r="K151" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>375.3</v>
@@ -7980,7 +7996,7 @@
         <v>140</v>
       </c>
       <c r="K152" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>375.4</v>
@@ -8031,7 +8047,7 @@
         <v>141</v>
       </c>
       <c r="K153" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>375.3</v>
@@ -8082,7 +8098,7 @@
         <v>142</v>
       </c>
       <c r="K154" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L154" t="n">
         <v>375.4</v>
@@ -8133,7 +8149,7 @@
         <v>142</v>
       </c>
       <c r="K155" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L155" t="n">
         <v>375.5</v>
@@ -8184,7 +8200,7 @@
         <v>142</v>
       </c>
       <c r="K156" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>375.6</v>
@@ -8235,7 +8251,7 @@
         <v>142</v>
       </c>
       <c r="K157" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L157" t="n">
         <v>375.6</v>
@@ -8286,7 +8302,7 @@
         <v>143</v>
       </c>
       <c r="K158" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L158" t="n">
         <v>375.8</v>
@@ -8337,7 +8353,7 @@
         <v>145</v>
       </c>
       <c r="K159" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>375.7</v>
@@ -8388,7 +8404,7 @@
         <v>145</v>
       </c>
       <c r="K160" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>375.7</v>
@@ -8439,7 +8455,7 @@
         <v>148</v>
       </c>
       <c r="K161" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L161" t="n">
         <v>375.4</v>
@@ -8490,7 +8506,7 @@
         <v>150</v>
       </c>
       <c r="K162" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L162" t="n">
         <v>375.2</v>
@@ -8541,7 +8557,7 @@
         <v>151</v>
       </c>
       <c r="K163" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L163" t="n">
         <v>375.2</v>
@@ -8592,7 +8608,7 @@
         <v>152</v>
       </c>
       <c r="K164" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L164" t="n">
         <v>375</v>
@@ -8643,7 +8659,7 @@
         <v>153</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L165" t="n">
         <v>374.9</v>
@@ -8694,7 +8710,7 @@
         <v>154</v>
       </c>
       <c r="K166" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>374.9</v>
@@ -8745,7 +8761,7 @@
         <v>154</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L167" t="n">
         <v>374.9</v>
@@ -8796,7 +8812,7 @@
         <v>154</v>
       </c>
       <c r="K168" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L168" t="n">
         <v>374.8</v>
@@ -8847,7 +8863,7 @@
         <v>155</v>
       </c>
       <c r="K169" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>374.8</v>
@@ -8898,7 +8914,7 @@
         <v>155</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L170" t="n">
         <v>374.8</v>
@@ -8949,7 +8965,7 @@
         <v>157</v>
       </c>
       <c r="K171" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L171" t="n">
         <v>375.3</v>
@@ -9000,7 +9016,7 @@
         <v>159</v>
       </c>
       <c r="K172" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L172" t="n">
         <v>375.8</v>
@@ -9051,7 +9067,7 @@
         <v>160</v>
       </c>
       <c r="K173" t="n">
-        <v>26.31578947368421</v>
+        <v>75</v>
       </c>
       <c r="L173" t="n">
         <v>376.3</v>
@@ -9102,7 +9118,7 @@
         <v>162</v>
       </c>
       <c r="K174" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L174" t="n">
         <v>376.7</v>
@@ -9153,7 +9169,7 @@
         <v>163</v>
       </c>
       <c r="K175" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L175" t="n">
         <v>377.1</v>
@@ -9204,7 +9220,7 @@
         <v>164</v>
       </c>
       <c r="K176" t="n">
-        <v>18.18181818181818</v>
+        <v>40</v>
       </c>
       <c r="L176" t="n">
         <v>377.5</v>
@@ -9255,7 +9271,7 @@
         <v>166</v>
       </c>
       <c r="K177" t="n">
-        <v>8.333333333333332</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L177" t="n">
         <v>377.7</v>
@@ -9306,7 +9322,7 @@
         <v>166</v>
       </c>
       <c r="K178" t="n">
-        <v>4.347826086956522</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L178" t="n">
         <v>377.9</v>
@@ -9357,7 +9373,7 @@
         <v>166</v>
       </c>
       <c r="K179" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L179" t="n">
         <v>378.2</v>
@@ -9408,7 +9424,7 @@
         <v>166</v>
       </c>
       <c r="K180" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L180" t="n">
         <v>378.5</v>
@@ -9459,7 +9475,7 @@
         <v>166</v>
       </c>
       <c r="K181" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L181" t="n">
         <v>378.6</v>
@@ -9510,7 +9526,7 @@
         <v>166</v>
       </c>
       <c r="K182" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>378.5</v>
@@ -9561,7 +9577,7 @@
         <v>167</v>
       </c>
       <c r="K183" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L183" t="n">
         <v>378.4</v>
@@ -9612,7 +9628,7 @@
         <v>168</v>
       </c>
       <c r="K184" t="n">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="L184" t="n">
         <v>378.6</v>
@@ -9663,7 +9679,7 @@
         <v>168</v>
       </c>
       <c r="K185" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>378.7</v>
@@ -9714,7 +9730,7 @@
         <v>169</v>
       </c>
       <c r="K186" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>378.6</v>
@@ -9765,7 +9781,7 @@
         <v>169</v>
       </c>
       <c r="K187" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>378.7</v>
@@ -9816,7 +9832,7 @@
         <v>169</v>
       </c>
       <c r="K188" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>378.8</v>
@@ -9867,7 +9883,7 @@
         <v>169</v>
       </c>
       <c r="K189" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>378.9</v>
@@ -9918,7 +9934,7 @@
         <v>170</v>
       </c>
       <c r="K190" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L190" t="n">
         <v>379.1</v>
@@ -9969,7 +9985,7 @@
         <v>170</v>
       </c>
       <c r="K191" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L191" t="n">
         <v>379.3</v>
@@ -10020,7 +10036,7 @@
         <v>170</v>
       </c>
       <c r="K192" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>379.5</v>
@@ -10122,7 +10138,7 @@
         <v>170</v>
       </c>
       <c r="K194" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>379.6</v>
@@ -10173,7 +10189,7 @@
         <v>171</v>
       </c>
       <c r="K195" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L195" t="n">
         <v>379.7</v>
@@ -10224,7 +10240,7 @@
         <v>171</v>
       </c>
       <c r="K196" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L196" t="n">
         <v>379.9</v>
@@ -10275,7 +10291,7 @@
         <v>173</v>
       </c>
       <c r="K197" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>379.9</v>
@@ -10326,7 +10342,7 @@
         <v>174</v>
       </c>
       <c r="K198" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
         <v>380</v>
@@ -10377,7 +10393,7 @@
         <v>174</v>
       </c>
       <c r="K199" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>380.1</v>
@@ -10428,7 +10444,7 @@
         <v>175</v>
       </c>
       <c r="K200" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L200" t="n">
         <v>380</v>
@@ -10479,7 +10495,7 @@
         <v>178</v>
       </c>
       <c r="K201" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L201" t="n">
         <v>380.2</v>
@@ -10530,7 +10546,7 @@
         <v>179</v>
       </c>
       <c r="K202" t="n">
-        <v>23.07692307692308</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L202" t="n">
         <v>380.3</v>
@@ -10581,7 +10597,7 @@
         <v>181</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L203" t="n">
         <v>380.2</v>
@@ -10632,7 +10648,7 @@
         <v>184</v>
       </c>
       <c r="K204" t="n">
-        <v>12.5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L204" t="n">
         <v>380.4</v>
@@ -10683,7 +10699,7 @@
         <v>184</v>
       </c>
       <c r="K205" t="n">
-        <v>12.5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L205" t="n">
         <v>380.5</v>
@@ -10734,7 +10750,7 @@
         <v>184</v>
       </c>
       <c r="K206" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L206" t="n">
         <v>380.6</v>
@@ -10836,7 +10852,7 @@
         <v>186</v>
       </c>
       <c r="K208" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>380.9</v>
@@ -10887,7 +10903,7 @@
         <v>186</v>
       </c>
       <c r="K209" t="n">
-        <v>5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L209" t="n">
         <v>380.9</v>
@@ -10938,7 +10954,7 @@
         <v>186</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L210" t="n">
         <v>381</v>
@@ -10989,7 +11005,7 @@
         <v>186</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L211" t="n">
         <v>380.8</v>
@@ -11040,7 +11056,7 @@
         <v>187</v>
       </c>
       <c r="K212" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>380.6</v>
@@ -11091,7 +11107,7 @@
         <v>187</v>
       </c>
       <c r="K213" t="n">
-        <v>-5.88235294117647</v>
+        <v>-100</v>
       </c>
       <c r="L213" t="n">
         <v>380.6</v>
@@ -11142,7 +11158,7 @@
         <v>189</v>
       </c>
       <c r="K214" t="n">
-        <v>-15.78947368421053</v>
+        <v>-100</v>
       </c>
       <c r="L214" t="n">
         <v>380.1</v>
@@ -11193,7 +11209,7 @@
         <v>190</v>
       </c>
       <c r="K215" t="n">
-        <v>-26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L215" t="n">
         <v>379.5</v>
@@ -11244,7 +11260,7 @@
         <v>190</v>
       </c>
       <c r="K216" t="n">
-        <v>-26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L216" t="n">
         <v>378.9</v>
@@ -11295,7 +11311,7 @@
         <v>191</v>
       </c>
       <c r="K217" t="n">
-        <v>-11.11111111111111</v>
+        <v>-60</v>
       </c>
       <c r="L217" t="n">
         <v>378.4</v>
@@ -11346,7 +11362,7 @@
         <v>191</v>
       </c>
       <c r="K218" t="n">
-        <v>-17.64705882352941</v>
+        <v>-60</v>
       </c>
       <c r="L218" t="n">
         <v>378.1</v>
@@ -11397,7 +11413,7 @@
         <v>191</v>
       </c>
       <c r="K219" t="n">
-        <v>-17.64705882352941</v>
+        <v>-60</v>
       </c>
       <c r="L219" t="n">
         <v>377.8</v>
@@ -11448,7 +11464,7 @@
         <v>191</v>
       </c>
       <c r="K220" t="n">
-        <v>-12.5</v>
+        <v>-60</v>
       </c>
       <c r="L220" t="n">
         <v>377.5</v>
@@ -11499,7 +11515,7 @@
         <v>192</v>
       </c>
       <c r="K221" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L221" t="n">
         <v>377.3</v>
@@ -11550,7 +11566,7 @@
         <v>193</v>
       </c>
       <c r="K222" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>377.3</v>
@@ -11601,7 +11617,7 @@
         <v>194</v>
       </c>
       <c r="K223" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L223" t="n">
         <v>377.2</v>
@@ -11652,7 +11668,7 @@
         <v>196</v>
       </c>
       <c r="K224" t="n">
-        <v>-16.66666666666666</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L224" t="n">
         <v>377.5</v>
@@ -11703,7 +11719,7 @@
         <v>197</v>
       </c>
       <c r="K225" t="n">
-        <v>-23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L225" t="n">
         <v>377.8</v>
@@ -11754,7 +11770,7 @@
         <v>198</v>
       </c>
       <c r="K226" t="n">
-        <v>-14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L226" t="n">
         <v>378.2</v>
@@ -11805,7 +11821,7 @@
         <v>198</v>
       </c>
       <c r="K227" t="n">
-        <v>-14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L227" t="n">
         <v>378.5</v>
@@ -11856,7 +11872,7 @@
         <v>198</v>
       </c>
       <c r="K228" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L228" t="n">
         <v>378.8</v>
@@ -11907,7 +11923,7 @@
         <v>198</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L229" t="n">
         <v>379.1</v>
@@ -11958,7 +11974,7 @@
         <v>198</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L230" t="n">
         <v>379.4</v>
@@ -12009,7 +12025,7 @@
         <v>199</v>
       </c>
       <c r="K231" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L231" t="n">
         <v>379.7</v>
@@ -12060,7 +12076,7 @@
         <v>200</v>
       </c>
       <c r="K232" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>379.8</v>
@@ -12111,7 +12127,7 @@
         <v>203</v>
       </c>
       <c r="K233" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L233" t="n">
         <v>380.3</v>
@@ -12162,7 +12178,7 @@
         <v>206</v>
       </c>
       <c r="K234" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L234" t="n">
         <v>380.3</v>
@@ -12213,7 +12229,7 @@
         <v>206</v>
       </c>
       <c r="K235" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>380.4</v>
@@ -12264,7 +12280,7 @@
         <v>206</v>
       </c>
       <c r="K236" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>380.4</v>
@@ -12315,7 +12331,7 @@
         <v>207</v>
       </c>
       <c r="K237" t="n">
-        <v>12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L237" t="n">
         <v>380.3</v>
@@ -12366,7 +12382,7 @@
         <v>207</v>
       </c>
       <c r="K238" t="n">
-        <v>12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L238" t="n">
         <v>380.2</v>
@@ -12417,7 +12433,7 @@
         <v>210</v>
       </c>
       <c r="K239" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L239" t="n">
         <v>379.8</v>
@@ -12468,7 +12484,7 @@
         <v>210</v>
       </c>
       <c r="K240" t="n">
-        <v>-5.263157894736842</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L240" t="n">
         <v>379.4</v>
@@ -12519,7 +12535,7 @@
         <v>212</v>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L241" t="n">
         <v>379.1</v>
@@ -12570,7 +12586,7 @@
         <v>213</v>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L242" t="n">
         <v>379</v>
@@ -12621,7 +12637,7 @@
         <v>213</v>
       </c>
       <c r="K243" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L243" t="n">
         <v>378.6</v>
@@ -12672,7 +12688,7 @@
         <v>213</v>
       </c>
       <c r="K244" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L244" t="n">
         <v>378.5</v>
@@ -12723,7 +12739,7 @@
         <v>213</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L245" t="n">
         <v>378.4</v>
@@ -12774,7 +12790,7 @@
         <v>214</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L246" t="n">
         <v>378.4</v>
@@ -12825,7 +12841,7 @@
         <v>214</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L247" t="n">
         <v>378.5</v>
@@ -12876,7 +12892,7 @@
         <v>214</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L248" t="n">
         <v>378.6</v>
@@ -12927,7 +12943,7 @@
         <v>215</v>
       </c>
       <c r="K249" t="n">
-        <v>-5.88235294117647</v>
+        <v>60</v>
       </c>
       <c r="L249" t="n">
         <v>378.9</v>
@@ -12978,7 +12994,7 @@
         <v>215</v>
       </c>
       <c r="K250" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L250" t="n">
         <v>379.2</v>
@@ -13029,7 +13045,7 @@
         <v>215</v>
       </c>
       <c r="K251" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>379.3</v>
@@ -13080,7 +13096,7 @@
         <v>216</v>
       </c>
       <c r="K252" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>379.2</v>
@@ -13131,7 +13147,7 @@
         <v>216</v>
       </c>
       <c r="K253" t="n">
-        <v>-38.46153846153847</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L253" t="n">
         <v>379.1</v>
@@ -13182,7 +13198,7 @@
         <v>216</v>
       </c>
       <c r="K254" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>379</v>
@@ -13233,7 +13249,7 @@
         <v>217</v>
       </c>
       <c r="K255" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L255" t="n">
         <v>378.8</v>
@@ -13284,7 +13300,7 @@
         <v>218</v>
       </c>
       <c r="K256" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L256" t="n">
         <v>378.6</v>
@@ -13335,7 +13351,7 @@
         <v>219</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L257" t="n">
         <v>378.5</v>
@@ -13386,7 +13402,7 @@
         <v>220</v>
       </c>
       <c r="K258" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L258" t="n">
         <v>378.5</v>
@@ -13437,7 +13453,7 @@
         <v>220</v>
       </c>
       <c r="K259" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L259" t="n">
         <v>378.6</v>
@@ -13488,7 +13504,7 @@
         <v>221</v>
       </c>
       <c r="K260" t="n">
-        <v>45.45454545454545</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>378.8</v>
@@ -13539,7 +13555,7 @@
         <v>221</v>
       </c>
       <c r="K261" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L261" t="n">
         <v>379</v>
@@ -13590,7 +13606,7 @@
         <v>222</v>
       </c>
       <c r="K262" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L262" t="n">
         <v>379.4</v>
@@ -13641,7 +13657,7 @@
         <v>224</v>
       </c>
       <c r="K263" t="n">
-        <v>45.45454545454545</v>
+        <v>75</v>
       </c>
       <c r="L263" t="n">
         <v>380</v>
@@ -13692,7 +13708,7 @@
         <v>224</v>
       </c>
       <c r="K264" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L264" t="n">
         <v>380.6</v>
@@ -13743,7 +13759,7 @@
         <v>226</v>
       </c>
       <c r="K265" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L265" t="n">
         <v>381.5</v>
@@ -13794,7 +13810,7 @@
         <v>228</v>
       </c>
       <c r="K266" t="n">
-        <v>28.57142857142857</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L266" t="n">
         <v>382.1</v>
@@ -13845,7 +13861,7 @@
         <v>229</v>
       </c>
       <c r="K267" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L267" t="n">
         <v>382.7</v>
@@ -13896,7 +13912,7 @@
         <v>229</v>
       </c>
       <c r="K268" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L268" t="n">
         <v>383.2</v>
@@ -13998,7 +14014,7 @@
         <v>231</v>
       </c>
       <c r="K270" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L270" t="n">
         <v>383.8</v>
@@ -14049,7 +14065,7 @@
         <v>232</v>
       </c>
       <c r="K271" t="n">
-        <v>29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L271" t="n">
         <v>384.1</v>
@@ -14100,7 +14116,7 @@
         <v>233</v>
       </c>
       <c r="K272" t="n">
-        <v>41.17647058823529</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L272" t="n">
         <v>384.4</v>
@@ -14151,7 +14167,7 @@
         <v>234</v>
       </c>
       <c r="K273" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>384.4</v>
@@ -14202,7 +14218,7 @@
         <v>234</v>
       </c>
       <c r="K274" t="n">
-        <v>33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L274" t="n">
         <v>384.4</v>
@@ -14253,7 +14269,7 @@
         <v>235</v>
       </c>
       <c r="K275" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L275" t="n">
         <v>384.1</v>
@@ -14304,7 +14320,7 @@
         <v>236</v>
       </c>
       <c r="K276" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L276" t="n">
         <v>384.1</v>
@@ -14355,7 +14371,7 @@
         <v>238</v>
       </c>
       <c r="K277" t="n">
-        <v>36.84210526315789</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L277" t="n">
         <v>384.2</v>
@@ -14406,7 +14422,7 @@
         <v>238</v>
       </c>
       <c r="K278" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L278" t="n">
         <v>384.3</v>
@@ -14457,7 +14473,7 @@
         <v>238</v>
       </c>
       <c r="K279" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L279" t="n">
         <v>384.5</v>
@@ -14508,7 +14524,7 @@
         <v>238</v>
       </c>
       <c r="K280" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L280" t="n">
         <v>384.8</v>
@@ -14610,7 +14626,7 @@
         <v>240</v>
       </c>
       <c r="K282" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L282" t="n">
         <v>385.2</v>
@@ -14661,7 +14677,7 @@
         <v>243</v>
       </c>
       <c r="K283" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L283" t="n">
         <v>385.1</v>
@@ -14712,7 +14728,7 @@
         <v>247</v>
       </c>
       <c r="K284" t="n">
-        <v>13.04347826086956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>385.4</v>
@@ -14763,7 +14779,7 @@
         <v>247</v>
       </c>
       <c r="K285" t="n">
-        <v>4.761904761904762</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L285" t="n">
         <v>385.8</v>
@@ -14814,7 +14830,7 @@
         <v>247</v>
       </c>
       <c r="K286" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L286" t="n">
         <v>386.1</v>
@@ -14865,7 +14881,7 @@
         <v>248</v>
       </c>
       <c r="K287" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L287" t="n">
         <v>386.3</v>
@@ -14916,7 +14932,7 @@
         <v>248</v>
       </c>
       <c r="K288" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L288" t="n">
         <v>386.5</v>
@@ -14967,7 +14983,7 @@
         <v>249</v>
       </c>
       <c r="K289" t="n">
-        <v>26.31578947368421</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L289" t="n">
         <v>386.8</v>
@@ -15018,7 +15034,7 @@
         <v>250</v>
       </c>
       <c r="K290" t="n">
-        <v>36.84210526315789</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L290" t="n">
         <v>387.2</v>
@@ -15069,7 +15085,7 @@
         <v>251</v>
       </c>
       <c r="K291" t="n">
-        <v>26.31578947368421</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L291" t="n">
         <v>387.4</v>
@@ -15120,7 +15136,7 @@
         <v>251</v>
       </c>
       <c r="K292" t="n">
-        <v>22.22222222222222</v>
+        <v>75</v>
       </c>
       <c r="L292" t="n">
         <v>387.7</v>
@@ -15171,7 +15187,7 @@
         <v>251</v>
       </c>
       <c r="K293" t="n">
-        <v>29.41176470588236</v>
+        <v>50</v>
       </c>
       <c r="L293" t="n">
         <v>388.3</v>
@@ -15222,7 +15238,7 @@
         <v>252</v>
       </c>
       <c r="K294" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L294" t="n">
         <v>388.4</v>
@@ -15273,7 +15289,7 @@
         <v>254</v>
       </c>
       <c r="K295" t="n">
-        <v>15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L295" t="n">
         <v>388.3</v>
@@ -15324,7 +15340,7 @@
         <v>256</v>
       </c>
       <c r="K296" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>388.4</v>
@@ -15375,7 +15391,7 @@
         <v>256</v>
       </c>
       <c r="K297" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>388.4</v>
@@ -15426,7 +15442,7 @@
         <v>257</v>
       </c>
       <c r="K298" t="n">
-        <v>5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L298" t="n">
         <v>388.3</v>
@@ -15477,7 +15493,7 @@
         <v>258</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L299" t="n">
         <v>388</v>
@@ -15528,7 +15544,7 @@
         <v>258</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L300" t="n">
         <v>387.6</v>
@@ -15579,7 +15595,7 @@
         <v>260</v>
       </c>
       <c r="K301" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L301" t="n">
         <v>387.5</v>
@@ -15630,7 +15646,7 @@
         <v>262</v>
       </c>
       <c r="K302" t="n">
-        <v>18.18181818181818</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L302" t="n">
         <v>387.6</v>
@@ -15681,7 +15697,7 @@
         <v>264</v>
       </c>
       <c r="K303" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L303" t="n">
         <v>387.5</v>
@@ -15732,7 +15748,7 @@
         <v>267</v>
       </c>
       <c r="K304" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L304" t="n">
         <v>387.2</v>
@@ -15783,7 +15799,7 @@
         <v>267</v>
       </c>
       <c r="K305" t="n">
-        <v>-10</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L305" t="n">
         <v>387.1</v>
@@ -15834,7 +15850,7 @@
         <v>267</v>
       </c>
       <c r="K306" t="n">
-        <v>-10</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L306" t="n">
         <v>386.8</v>
@@ -15885,7 +15901,7 @@
         <v>267</v>
       </c>
       <c r="K307" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L307" t="n">
         <v>386.5</v>
@@ -15936,7 +15952,7 @@
         <v>267</v>
       </c>
       <c r="K308" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L308" t="n">
         <v>386.3</v>
@@ -15987,7 +16003,7 @@
         <v>268</v>
       </c>
       <c r="K309" t="n">
-        <v>-26.31578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L309" t="n">
         <v>386.1</v>
@@ -16038,7 +16054,7 @@
         <v>268</v>
       </c>
       <c r="K310" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L310" t="n">
         <v>385.9</v>
@@ -16089,7 +16105,7 @@
         <v>269</v>
       </c>
       <c r="K311" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L311" t="n">
         <v>385.4</v>
@@ -16140,7 +16156,7 @@
         <v>269</v>
       </c>
       <c r="K312" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L312" t="n">
         <v>384.7</v>
@@ -16191,7 +16207,7 @@
         <v>269</v>
       </c>
       <c r="K313" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L313" t="n">
         <v>384.2</v>
@@ -16242,7 +16258,7 @@
         <v>270</v>
       </c>
       <c r="K314" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L314" t="n">
         <v>383.9</v>
@@ -16293,7 +16309,7 @@
         <v>270</v>
       </c>
       <c r="K315" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L315" t="n">
         <v>383.6</v>
@@ -16344,7 +16360,7 @@
         <v>272</v>
       </c>
       <c r="K316" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L316" t="n">
         <v>383.5</v>
@@ -16395,7 +16411,7 @@
         <v>273</v>
       </c>
       <c r="K317" t="n">
-        <v>-29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L317" t="n">
         <v>383.3</v>
@@ -16446,7 +16462,7 @@
         <v>275</v>
       </c>
       <c r="K318" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L318" t="n">
         <v>383.3</v>
@@ -16497,7 +16513,7 @@
         <v>275</v>
       </c>
       <c r="K319" t="n">
-        <v>-5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L319" t="n">
         <v>383.4</v>
@@ -16548,7 +16564,7 @@
         <v>276</v>
       </c>
       <c r="K320" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L320" t="n">
         <v>383.4</v>
@@ -16599,7 +16615,7 @@
         <v>278</v>
       </c>
       <c r="K321" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L321" t="n">
         <v>383.7</v>
@@ -16650,7 +16666,7 @@
         <v>279</v>
       </c>
       <c r="K322" t="n">
-        <v>-29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L322" t="n">
         <v>383.9</v>
@@ -16701,7 +16717,7 @@
         <v>280</v>
       </c>
       <c r="K323" t="n">
-        <v>-12.5</v>
+        <v>40</v>
       </c>
       <c r="L323" t="n">
         <v>384.2</v>
@@ -16752,7 +16768,7 @@
         <v>281</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L324" t="n">
         <v>384.5</v>
@@ -16803,7 +16819,7 @@
         <v>282</v>
       </c>
       <c r="K325" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L325" t="n">
         <v>384.9</v>
@@ -16854,7 +16870,7 @@
         <v>283</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L326" t="n">
         <v>385</v>
@@ -17007,7 +17023,7 @@
         <v>283</v>
       </c>
       <c r="K329" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L329" t="n">
         <v>385.2</v>
@@ -17058,7 +17074,7 @@
         <v>283</v>
       </c>
       <c r="K330" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L330" t="n">
         <v>385.3</v>
@@ -17109,7 +17125,7 @@
         <v>283</v>
       </c>
       <c r="K331" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>385.2</v>
@@ -17160,7 +17176,7 @@
         <v>283</v>
       </c>
       <c r="K332" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L332" t="n">
         <v>385.2</v>
@@ -17211,7 +17227,7 @@
         <v>284</v>
       </c>
       <c r="K333" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L333" t="n">
         <v>385</v>
@@ -17262,7 +17278,7 @@
         <v>285</v>
       </c>
       <c r="K334" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L334" t="n">
         <v>385</v>
@@ -17313,7 +17329,7 @@
         <v>285</v>
       </c>
       <c r="K335" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>384.9</v>
@@ -17364,7 +17380,7 @@
         <v>285</v>
       </c>
       <c r="K336" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>384.9</v>
@@ -17415,7 +17431,7 @@
         <v>285</v>
       </c>
       <c r="K337" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>384.9</v>
@@ -17568,7 +17584,7 @@
         <v>285</v>
       </c>
       <c r="K340" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>384.9</v>
@@ -17619,7 +17635,7 @@
         <v>286</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L341" t="n">
         <v>385</v>
@@ -17670,7 +17686,7 @@
         <v>286</v>
       </c>
       <c r="K342" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L342" t="n">
         <v>385.1</v>
@@ -17721,7 +17737,7 @@
         <v>288</v>
       </c>
       <c r="K343" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L343" t="n">
         <v>385.1</v>
@@ -17772,7 +17788,7 @@
         <v>288</v>
       </c>
       <c r="K344" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L344" t="n">
         <v>385</v>
@@ -17823,7 +17839,7 @@
         <v>289</v>
       </c>
       <c r="K345" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L345" t="n">
         <v>384.8</v>
@@ -17874,7 +17890,7 @@
         <v>292</v>
       </c>
       <c r="K346" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L346" t="n">
         <v>384.9</v>
@@ -17925,7 +17941,7 @@
         <v>295</v>
       </c>
       <c r="K347" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L347" t="n">
         <v>384.7</v>
@@ -17976,7 +17992,7 @@
         <v>296</v>
       </c>
       <c r="K348" t="n">
-        <v>-23.07692307692308</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L348" t="n">
         <v>384.4</v>
@@ -18027,7 +18043,7 @@
         <v>296</v>
       </c>
       <c r="K349" t="n">
-        <v>-23.07692307692308</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L349" t="n">
         <v>384.1</v>
@@ -18078,7 +18094,7 @@
         <v>297</v>
       </c>
       <c r="K350" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L350" t="n">
         <v>383.9</v>
@@ -18129,7 +18145,7 @@
         <v>297</v>
       </c>
       <c r="K351" t="n">
-        <v>-14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L351" t="n">
         <v>383.6</v>
@@ -18180,7 +18196,7 @@
         <v>299</v>
       </c>
       <c r="K352" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L352" t="n">
         <v>383.1</v>
@@ -18231,7 +18247,7 @@
         <v>299</v>
       </c>
       <c r="K353" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L353" t="n">
         <v>382.8</v>
@@ -18282,7 +18298,7 @@
         <v>299</v>
       </c>
       <c r="K354" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L354" t="n">
         <v>382.5</v>
@@ -18333,7 +18349,7 @@
         <v>303</v>
       </c>
       <c r="K355" t="n">
-        <v>-44.44444444444444</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L355" t="n">
         <v>381.9</v>
@@ -18384,7 +18400,7 @@
         <v>304</v>
       </c>
       <c r="K356" t="n">
-        <v>-36.84210526315789</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L356" t="n">
         <v>381.1</v>
@@ -18435,7 +18451,7 @@
         <v>305</v>
       </c>
       <c r="K357" t="n">
-        <v>-30</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L357" t="n">
         <v>380.7</v>
@@ -18486,7 +18502,7 @@
         <v>306</v>
       </c>
       <c r="K358" t="n">
-        <v>-23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L358" t="n">
         <v>380.5</v>
@@ -18537,7 +18553,7 @@
         <v>308</v>
       </c>
       <c r="K359" t="n">
-        <v>-13.04347826086956</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L359" t="n">
         <v>380.5</v>
@@ -18588,7 +18604,7 @@
         <v>310</v>
       </c>
       <c r="K360" t="n">
-        <v>-4</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L360" t="n">
         <v>380.6</v>
@@ -18639,7 +18655,7 @@
         <v>310</v>
       </c>
       <c r="K361" t="n">
-        <v>-8.333333333333332</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L361" t="n">
         <v>380.7</v>
@@ -18690,7 +18706,7 @@
         <v>312</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L362" t="n">
         <v>381.2</v>
@@ -18741,7 +18757,7 @@
         <v>312</v>
       </c>
       <c r="K363" t="n">
-        <v>8.333333333333332</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L363" t="n">
         <v>381.7</v>
@@ -18792,7 +18808,7 @@
         <v>313</v>
       </c>
       <c r="K364" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="L364" t="n">
         <v>382.1</v>
@@ -18843,7 +18859,7 @@
         <v>315</v>
       </c>
       <c r="K365" t="n">
-        <v>15.38461538461539</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L365" t="n">
         <v>383.1</v>
@@ -18894,7 +18910,7 @@
         <v>317</v>
       </c>
       <c r="K366" t="n">
-        <v>-4</v>
+        <v>50</v>
       </c>
       <c r="L366" t="n">
         <v>383.8</v>
@@ -18945,7 +18961,7 @@
         <v>318</v>
       </c>
       <c r="K367" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L367" t="n">
         <v>384.3</v>
@@ -18996,7 +19012,7 @@
         <v>318</v>
       </c>
       <c r="K368" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L368" t="n">
         <v>384.7</v>
@@ -19047,7 +19063,7 @@
         <v>321</v>
       </c>
       <c r="K369" t="n">
-        <v>-4</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L369" t="n">
         <v>384.6</v>
@@ -19098,7 +19114,7 @@
         <v>322</v>
       </c>
       <c r="K370" t="n">
-        <v>-4</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L370" t="n">
         <v>384.4</v>
@@ -19149,7 +19165,7 @@
         <v>323</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L371" t="n">
         <v>384.3</v>
@@ -19200,7 +19216,7 @@
         <v>323</v>
       </c>
       <c r="K372" t="n">
-        <v>8.333333333333332</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L372" t="n">
         <v>384</v>
@@ -19251,7 +19267,7 @@
         <v>324</v>
       </c>
       <c r="K373" t="n">
-        <v>4</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L373" t="n">
         <v>383.6</v>
@@ -19302,7 +19318,7 @@
         <v>324</v>
       </c>
       <c r="K374" t="n">
-        <v>4</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L374" t="n">
         <v>383.3</v>
@@ -19353,7 +19369,7 @@
         <v>324</v>
       </c>
       <c r="K375" t="n">
-        <v>23.80952380952381</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L375" t="n">
         <v>382.8</v>
@@ -19404,7 +19420,7 @@
         <v>326</v>
       </c>
       <c r="K376" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>382.7</v>
@@ -19455,7 +19471,7 @@
         <v>328</v>
       </c>
       <c r="K377" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L377" t="n">
         <v>382.9</v>
@@ -19506,7 +19522,7 @@
         <v>329</v>
       </c>
       <c r="K378" t="n">
-        <v>21.73913043478261</v>
+        <v>50</v>
       </c>
       <c r="L378" t="n">
         <v>383</v>
@@ -19557,7 +19573,7 @@
         <v>329</v>
       </c>
       <c r="K379" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L379" t="n">
         <v>383.4</v>
@@ -19608,7 +19624,7 @@
         <v>330</v>
       </c>
       <c r="K380" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L380" t="n">
         <v>383.6</v>
@@ -19659,7 +19675,7 @@
         <v>330</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L381" t="n">
         <v>383.7</v>
@@ -19710,7 +19726,7 @@
         <v>330</v>
       </c>
       <c r="K382" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L382" t="n">
         <v>383.8</v>
@@ -19761,7 +19777,7 @@
         <v>330</v>
       </c>
       <c r="K383" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L383" t="n">
         <v>384</v>
@@ -19812,7 +19828,7 @@
         <v>330</v>
       </c>
       <c r="K384" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L384" t="n">
         <v>384.2</v>
@@ -19863,7 +19879,7 @@
         <v>331</v>
       </c>
       <c r="K385" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L385" t="n">
         <v>384.3</v>
@@ -19914,7 +19930,7 @@
         <v>332</v>
       </c>
       <c r="K386" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L386" t="n">
         <v>384.3</v>
@@ -19965,7 +19981,7 @@
         <v>332</v>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L387" t="n">
         <v>384.1</v>
@@ -20016,7 +20032,7 @@
         <v>333</v>
       </c>
       <c r="K388" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L388" t="n">
         <v>383.9</v>
@@ -20067,7 +20083,7 @@
         <v>335</v>
       </c>
       <c r="K389" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L389" t="n">
         <v>383.9</v>
@@ -20118,7 +20134,7 @@
         <v>335</v>
       </c>
       <c r="K390" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L390" t="n">
         <v>384</v>
@@ -20169,7 +20185,7 @@
         <v>335</v>
       </c>
       <c r="K391" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L391" t="n">
         <v>384.1</v>
@@ -20220,7 +20236,7 @@
         <v>336</v>
       </c>
       <c r="K392" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>384.1</v>
@@ -20271,7 +20287,7 @@
         <v>337</v>
       </c>
       <c r="K393" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L393" t="n">
         <v>384</v>
@@ -20322,7 +20338,7 @@
         <v>338</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L394" t="n">
         <v>383.8</v>
@@ -20373,7 +20389,7 @@
         <v>338</v>
       </c>
       <c r="K395" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L395" t="n">
         <v>383.7</v>
@@ -20424,7 +20440,7 @@
         <v>339</v>
       </c>
       <c r="K396" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L396" t="n">
         <v>383.6</v>
@@ -20475,7 +20491,7 @@
         <v>339</v>
       </c>
       <c r="K397" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L397" t="n">
         <v>383.5</v>
@@ -20526,7 +20542,7 @@
         <v>340</v>
       </c>
       <c r="K398" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L398" t="n">
         <v>383.6</v>
@@ -20577,7 +20593,7 @@
         <v>341</v>
       </c>
       <c r="K399" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L399" t="n">
         <v>383.4</v>
@@ -20628,7 +20644,7 @@
         <v>342</v>
       </c>
       <c r="K400" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L400" t="n">
         <v>383.3</v>
@@ -20679,7 +20695,7 @@
         <v>343</v>
       </c>
       <c r="K401" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L401" t="n">
         <v>383.1</v>
@@ -20730,7 +20746,7 @@
         <v>343</v>
       </c>
       <c r="K402" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>383</v>
@@ -20781,7 +20797,7 @@
         <v>344</v>
       </c>
       <c r="K403" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>382.9</v>
@@ -20934,7 +20950,7 @@
         <v>349</v>
       </c>
       <c r="K406" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>382.8</v>
@@ -20985,7 +21001,7 @@
         <v>351</v>
       </c>
       <c r="K407" t="n">
-        <v>-15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L407" t="n">
         <v>382.6</v>
@@ -21036,7 +21052,7 @@
         <v>352</v>
       </c>
       <c r="K408" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L408" t="n">
         <v>382.4</v>
@@ -21087,7 +21103,7 @@
         <v>353</v>
       </c>
       <c r="K409" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L409" t="n">
         <v>382.4</v>
@@ -21138,7 +21154,7 @@
         <v>353</v>
       </c>
       <c r="K410" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>382.3</v>
@@ -21189,7 +21205,7 @@
         <v>353</v>
       </c>
       <c r="K411" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>382.3</v>
@@ -21240,7 +21256,7 @@
         <v>354</v>
       </c>
       <c r="K412" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>382.2</v>
@@ -21291,7 +21307,7 @@
         <v>356</v>
       </c>
       <c r="K413" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>382</v>
@@ -21342,7 +21358,7 @@
         <v>357</v>
       </c>
       <c r="K414" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L414" t="n">
         <v>382.1</v>
@@ -21393,7 +21409,7 @@
         <v>357</v>
       </c>
       <c r="K415" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L415" t="n">
         <v>381.9</v>
@@ -21444,7 +21460,7 @@
         <v>357</v>
       </c>
       <c r="K416" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>381.7</v>
@@ -21495,7 +21511,7 @@
         <v>358</v>
       </c>
       <c r="K417" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L417" t="n">
         <v>381.6</v>
@@ -21546,7 +21562,7 @@
         <v>359</v>
       </c>
       <c r="K418" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L418" t="n">
         <v>381.5</v>
@@ -21597,7 +21613,7 @@
         <v>359</v>
       </c>
       <c r="K419" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L419" t="n">
         <v>381.3</v>
@@ -21648,7 +21664,7 @@
         <v>363</v>
       </c>
       <c r="K420" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L420" t="n">
         <v>380.7</v>
@@ -21699,7 +21715,7 @@
         <v>364</v>
       </c>
       <c r="K421" t="n">
-        <v>-23.80952380952381</v>
+        <v>-40</v>
       </c>
       <c r="L421" t="n">
         <v>380.2</v>
@@ -21750,7 +21766,7 @@
         <v>364</v>
       </c>
       <c r="K422" t="n">
-        <v>-23.80952380952381</v>
+        <v>-25</v>
       </c>
       <c r="L422" t="n">
         <v>379.8</v>
@@ -21801,7 +21817,7 @@
         <v>365</v>
       </c>
       <c r="K423" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L423" t="n">
         <v>379.7</v>
@@ -21852,7 +21868,7 @@
         <v>366</v>
       </c>
       <c r="K424" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L424" t="n">
         <v>379.6</v>
@@ -21903,7 +21919,7 @@
         <v>366</v>
       </c>
       <c r="K425" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L425" t="n">
         <v>379.5</v>
@@ -21954,7 +21970,7 @@
         <v>366</v>
       </c>
       <c r="K426" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L426" t="n">
         <v>379.4</v>
@@ -22005,7 +22021,7 @@
         <v>366</v>
       </c>
       <c r="K427" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L427" t="n">
         <v>379.4</v>
@@ -22107,7 +22123,7 @@
         <v>367</v>
       </c>
       <c r="K429" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L429" t="n">
         <v>379.3</v>
@@ -22158,7 +22174,7 @@
         <v>367</v>
       </c>
       <c r="K430" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L430" t="n">
         <v>379.7</v>
@@ -22209,7 +22225,7 @@
         <v>368</v>
       </c>
       <c r="K431" t="n">
-        <v>-6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L431" t="n">
         <v>380.1</v>
@@ -22260,7 +22276,7 @@
         <v>370</v>
       </c>
       <c r="K432" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L432" t="n">
         <v>380.3</v>
@@ -22311,7 +22327,7 @@
         <v>371</v>
       </c>
       <c r="K433" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L433" t="n">
         <v>380.3</v>
@@ -22362,7 +22378,7 @@
         <v>376</v>
       </c>
       <c r="K434" t="n">
-        <v>15.78947368421053</v>
+        <v>40</v>
       </c>
       <c r="L434" t="n">
         <v>380.7</v>
@@ -22413,7 +22429,7 @@
         <v>378</v>
       </c>
       <c r="K435" t="n">
-        <v>4.761904761904762</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L435" t="n">
         <v>380.9</v>
@@ -22464,7 +22480,7 @@
         <v>378</v>
       </c>
       <c r="K436" t="n">
-        <v>4.761904761904762</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L436" t="n">
         <v>381.1</v>
@@ -22515,7 +22531,7 @@
         <v>378</v>
       </c>
       <c r="K437" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L437" t="n">
         <v>381.3</v>
@@ -22566,7 +22582,7 @@
         <v>378</v>
       </c>
       <c r="K438" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L438" t="n">
         <v>381.5</v>
@@ -22617,7 +22633,7 @@
         <v>378</v>
       </c>
       <c r="K439" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L439" t="n">
         <v>381.6</v>
@@ -22668,7 +22684,7 @@
         <v>378</v>
       </c>
       <c r="K440" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>381.7</v>
@@ -22770,7 +22786,7 @@
         <v>381</v>
       </c>
       <c r="K442" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L442" t="n">
         <v>381.9</v>
@@ -22821,7 +22837,7 @@
         <v>383</v>
       </c>
       <c r="K443" t="n">
-        <v>22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L443" t="n">
         <v>382.3</v>
@@ -22872,7 +22888,7 @@
         <v>383</v>
       </c>
       <c r="K444" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L444" t="n">
         <v>382.2</v>
@@ -22923,7 +22939,7 @@
         <v>385</v>
       </c>
       <c r="K445" t="n">
-        <v>26.31578947368421</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L445" t="n">
         <v>382.5</v>
@@ -22974,7 +22990,7 @@
         <v>387</v>
       </c>
       <c r="K446" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L446" t="n">
         <v>382.6</v>
@@ -23025,7 +23041,7 @@
         <v>387</v>
       </c>
       <c r="K447" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L447" t="n">
         <v>382.7</v>
@@ -23076,7 +23092,7 @@
         <v>388</v>
       </c>
       <c r="K448" t="n">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L448" t="n">
         <v>382.9</v>
@@ -23127,7 +23143,7 @@
         <v>388</v>
       </c>
       <c r="K449" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L449" t="n">
         <v>383.1</v>
@@ -23178,7 +23194,7 @@
         <v>389</v>
       </c>
       <c r="K450" t="n">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L450" t="n">
         <v>383.4</v>
@@ -23229,7 +23245,7 @@
         <v>390</v>
       </c>
       <c r="K451" t="n">
-        <v>18.18181818181818</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L451" t="n">
         <v>383.7</v>
@@ -23280,7 +23296,7 @@
         <v>391</v>
       </c>
       <c r="K452" t="n">
-        <v>23.80952380952381</v>
+        <v>25</v>
       </c>
       <c r="L452" t="n">
         <v>384.1</v>
@@ -23382,7 +23398,7 @@
         <v>393</v>
       </c>
       <c r="K454" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>384.6</v>
@@ -23433,7 +23449,7 @@
         <v>394</v>
       </c>
       <c r="K455" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L455" t="n">
         <v>384.5</v>
@@ -23484,7 +23500,7 @@
         <v>395</v>
       </c>
       <c r="K456" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L456" t="n">
         <v>384.7</v>
@@ -23535,7 +23551,7 @@
         <v>395</v>
       </c>
       <c r="K457" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L457" t="n">
         <v>384.9</v>
@@ -23586,7 +23602,7 @@
         <v>396</v>
       </c>
       <c r="K458" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>384.9</v>
@@ -23637,7 +23653,7 @@
         <v>397</v>
       </c>
       <c r="K459" t="n">
-        <v>5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L459" t="n">
         <v>384.8</v>
@@ -23688,7 +23704,7 @@
         <v>397</v>
       </c>
       <c r="K460" t="n">
-        <v>5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L460" t="n">
         <v>384.6</v>
@@ -23739,7 +23755,7 @@
         <v>398</v>
       </c>
       <c r="K461" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L461" t="n">
         <v>384.4</v>
@@ -23790,7 +23806,7 @@
         <v>398</v>
       </c>
       <c r="K462" t="n">
-        <v>17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L462" t="n">
         <v>384.3</v>
@@ -23841,7 +23857,7 @@
         <v>399</v>
       </c>
       <c r="K463" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>384.2</v>
@@ -23892,7 +23908,7 @@
         <v>400</v>
       </c>
       <c r="K464" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L464" t="n">
         <v>384.3</v>
@@ -23943,7 +23959,7 @@
         <v>402</v>
       </c>
       <c r="K465" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L465" t="n">
         <v>384.3</v>
@@ -23994,7 +24010,7 @@
         <v>403</v>
       </c>
       <c r="K466" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L466" t="n">
         <v>384.3</v>
@@ -24045,7 +24061,7 @@
         <v>404</v>
       </c>
       <c r="K467" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L467" t="n">
         <v>384.2</v>
@@ -24096,7 +24112,7 @@
         <v>404</v>
       </c>
       <c r="K468" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L468" t="n">
         <v>384.2</v>
@@ -24147,7 +24163,7 @@
         <v>404</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L469" t="n">
         <v>384.3</v>
@@ -24198,7 +24214,7 @@
         <v>405</v>
       </c>
       <c r="K470" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L470" t="n">
         <v>384.3</v>
@@ -24249,7 +24265,7 @@
         <v>405</v>
       </c>
       <c r="K471" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L471" t="n">
         <v>384.2</v>
@@ -24300,7 +24316,7 @@
         <v>405</v>
       </c>
       <c r="K472" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L472" t="n">
         <v>384.1</v>
@@ -24351,7 +24367,7 @@
         <v>405</v>
       </c>
       <c r="K473" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L473" t="n">
         <v>383.9</v>
@@ -24402,7 +24418,7 @@
         <v>406</v>
       </c>
       <c r="K474" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>383.7</v>
@@ -24453,7 +24469,7 @@
         <v>406</v>
       </c>
       <c r="K475" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L475" t="n">
         <v>383.7</v>
@@ -24504,7 +24520,7 @@
         <v>406</v>
       </c>
       <c r="K476" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>383.6</v>
@@ -24555,7 +24571,7 @@
         <v>406</v>
       </c>
       <c r="K477" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>383.6</v>
@@ -24606,7 +24622,7 @@
         <v>407</v>
       </c>
       <c r="K478" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L478" t="n">
         <v>383.5</v>
@@ -24657,7 +24673,7 @@
         <v>408</v>
       </c>
       <c r="K479" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L479" t="n">
         <v>383.5</v>
@@ -24759,7 +24775,7 @@
         <v>409</v>
       </c>
       <c r="K481" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L481" t="n">
         <v>383.5</v>
@@ -24810,7 +24826,7 @@
         <v>409</v>
       </c>
       <c r="K482" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>383.5</v>
@@ -24861,7 +24877,7 @@
         <v>409</v>
       </c>
       <c r="K483" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L483" t="n">
         <v>383.5</v>
@@ -24912,7 +24928,7 @@
         <v>410</v>
       </c>
       <c r="K484" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="L484" t="n">
         <v>383.3</v>
@@ -24963,7 +24979,7 @@
         <v>410</v>
       </c>
       <c r="K485" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L485" t="n">
         <v>383.1</v>
@@ -25014,7 +25030,7 @@
         <v>411</v>
       </c>
       <c r="K486" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L486" t="n">
         <v>382.8</v>
@@ -25065,7 +25081,7 @@
         <v>411</v>
       </c>
       <c r="K487" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L487" t="n">
         <v>382.5</v>
@@ -25116,7 +25132,7 @@
         <v>411</v>
       </c>
       <c r="K488" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L488" t="n">
         <v>382.3</v>
@@ -25167,7 +25183,7 @@
         <v>413</v>
       </c>
       <c r="K489" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>382.2</v>
@@ -25218,7 +25234,7 @@
         <v>415</v>
       </c>
       <c r="K490" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>382</v>
@@ -25269,7 +25285,7 @@
         <v>416</v>
       </c>
       <c r="K491" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L491" t="n">
         <v>381.9</v>
@@ -25371,7 +25387,7 @@
         <v>418</v>
       </c>
       <c r="K493" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L493" t="n">
         <v>381.8</v>
@@ -25422,7 +25438,7 @@
         <v>419</v>
       </c>
       <c r="K494" t="n">
-        <v>-23.07692307692308</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L494" t="n">
         <v>381.7</v>
@@ -25473,7 +25489,7 @@
         <v>421</v>
       </c>
       <c r="K495" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L495" t="n">
         <v>381.4</v>
@@ -25524,7 +25540,7 @@
         <v>422</v>
       </c>
       <c r="K496" t="n">
-        <v>-37.5</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L496" t="n">
         <v>381.1</v>
@@ -25575,7 +25591,7 @@
         <v>423</v>
       </c>
       <c r="K497" t="n">
-        <v>-29.41176470588236</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L497" t="n">
         <v>380.9</v>
@@ -25626,7 +25642,7 @@
         <v>424</v>
       </c>
       <c r="K498" t="n">
-        <v>-29.41176470588236</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L498" t="n">
         <v>380.6</v>
@@ -25677,7 +25693,7 @@
         <v>425</v>
       </c>
       <c r="K499" t="n">
-        <v>-41.17647058823529</v>
+        <v>-40</v>
       </c>
       <c r="L499" t="n">
         <v>380</v>
@@ -25728,7 +25744,7 @@
         <v>426</v>
       </c>
       <c r="K500" t="n">
-        <v>-41.17647058823529</v>
+        <v>-60</v>
       </c>
       <c r="L500" t="n">
         <v>379.5</v>
@@ -25779,7 +25795,7 @@
         <v>426</v>
       </c>
       <c r="K501" t="n">
-        <v>-41.17647058823529</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L501" t="n">
         <v>378.9</v>
@@ -25830,7 +25846,7 @@
         <v>426</v>
       </c>
       <c r="K502" t="n">
-        <v>-41.17647058823529</v>
+        <v>-75</v>
       </c>
       <c r="L502" t="n">
         <v>378.2</v>
@@ -25881,7 +25897,7 @@
         <v>426</v>
       </c>
       <c r="K503" t="n">
-        <v>-41.17647058823529</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L503" t="n">
         <v>377.6</v>
@@ -25932,7 +25948,7 @@
         <v>426</v>
       </c>
       <c r="K504" t="n">
-        <v>-37.5</v>
+        <v>-60</v>
       </c>
       <c r="L504" t="n">
         <v>377.1</v>
@@ -25983,7 +25999,7 @@
         <v>426</v>
       </c>
       <c r="K505" t="n">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="L505" t="n">
         <v>376.8</v>
@@ -26034,7 +26050,7 @@
         <v>429</v>
       </c>
       <c r="K506" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L506" t="n">
         <v>376.9</v>
@@ -26085,7 +26101,7 @@
         <v>430</v>
       </c>
       <c r="K507" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L507" t="n">
         <v>376.8</v>
@@ -26136,7 +26152,7 @@
         <v>432</v>
       </c>
       <c r="K508" t="n">
-        <v>-23.80952380952381</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L508" t="n">
         <v>376.6</v>
@@ -26187,7 +26203,7 @@
         <v>432</v>
       </c>
       <c r="K509" t="n">
-        <v>-36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L509" t="n">
         <v>376.5</v>
@@ -26238,7 +26254,7 @@
         <v>432</v>
       </c>
       <c r="K510" t="n">
-        <v>-29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L510" t="n">
         <v>376.5</v>
@@ -26289,7 +26305,7 @@
         <v>432</v>
       </c>
       <c r="K511" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>376.5</v>

--- a/BackTest/2019-10-18 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-18 BackTest ZRX.xlsx
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K25" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
@@ -1304,7 +1304,7 @@
         <v>363</v>
       </c>
       <c r="K26" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K27" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K28" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1584,16 +1584,14 @@
         <v>370.1833333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>365</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1634,7 +1632,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1668,16 +1666,14 @@
         <v>369.95</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>365</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1711,16 +1707,14 @@
         <v>369.8166666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>364</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1761,7 +1755,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1802,7 +1796,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1836,16 +1830,14 @@
         <v>369.1666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>365</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1879,16 +1871,14 @@
         <v>368.95</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>365</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1922,16 +1912,14 @@
         <v>368.7166666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>365</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1965,16 +1953,14 @@
         <v>368.5</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>365</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2008,16 +1994,14 @@
         <v>368.2833333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>365</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2051,16 +2035,14 @@
         <v>368.0833333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>365</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2094,16 +2076,14 @@
         <v>367.95</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
         <v>366</v>
-      </c>
-      <c r="K45" t="n">
-        <v>365</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2137,16 +2117,14 @@
         <v>367.8333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
         <v>366</v>
-      </c>
-      <c r="K46" t="n">
-        <v>365</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2180,16 +2158,14 @@
         <v>367.7666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>367</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2223,16 +2199,14 @@
         <v>367.7333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>367</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2266,16 +2240,14 @@
         <v>367.6333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
         <v>366</v>
-      </c>
-      <c r="K49" t="n">
-        <v>365</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2309,16 +2281,14 @@
         <v>367.55</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>368</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2352,16 +2322,14 @@
         <v>367.4833333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>367</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2395,16 +2363,14 @@
         <v>367.3833333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
         <v>366</v>
-      </c>
-      <c r="K52" t="n">
-        <v>365</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2438,16 +2404,14 @@
         <v>367.3166666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>365</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2481,16 +2445,14 @@
         <v>367.25</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
         <v>366</v>
-      </c>
-      <c r="K54" t="n">
-        <v>365</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2524,16 +2486,14 @@
         <v>367.1666666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
         <v>366</v>
-      </c>
-      <c r="K55" t="n">
-        <v>365</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2567,16 +2527,14 @@
         <v>367.0833333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
         <v>366</v>
-      </c>
-      <c r="K56" t="n">
-        <v>365</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2610,16 +2568,14 @@
         <v>366.9833333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
         <v>366</v>
-      </c>
-      <c r="K57" t="n">
-        <v>365</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2653,16 +2609,14 @@
         <v>366.8666666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
         <v>366</v>
-      </c>
-      <c r="K58" t="n">
-        <v>365</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2696,16 +2650,14 @@
         <v>366.7</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
         <v>366</v>
-      </c>
-      <c r="K59" t="n">
-        <v>365</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2739,16 +2691,14 @@
         <v>366.5333333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
         <v>366</v>
-      </c>
-      <c r="K60" t="n">
-        <v>365</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2782,16 +2732,14 @@
         <v>366.3666666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
         <v>366</v>
-      </c>
-      <c r="K61" t="n">
-        <v>365</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2825,16 +2773,14 @@
         <v>366.2</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
         <v>366</v>
-      </c>
-      <c r="K62" t="n">
-        <v>365</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2868,16 +2814,14 @@
         <v>366.05</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
         <v>366</v>
-      </c>
-      <c r="K63" t="n">
-        <v>365</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2911,16 +2855,14 @@
         <v>365.9</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
         <v>366</v>
-      </c>
-      <c r="K64" t="n">
-        <v>365</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2954,16 +2896,14 @@
         <v>365.75</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
         <v>366</v>
-      </c>
-      <c r="K65" t="n">
-        <v>365</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2997,16 +2937,14 @@
         <v>365.6666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>367</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3040,16 +2978,14 @@
         <v>365.6166666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>368</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3083,16 +3019,14 @@
         <v>365.55</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>367</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3126,16 +3060,14 @@
         <v>365.5166666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>367</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3169,16 +3101,14 @@
         <v>365.5166666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>369</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3212,16 +3142,14 @@
         <v>365.55</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>369</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3255,16 +3183,14 @@
         <v>365.6</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>370</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3305,7 +3231,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3346,7 +3272,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3387,7 +3313,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3428,7 +3354,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3469,7 +3395,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3510,7 +3436,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3551,7 +3477,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3592,7 +3518,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3633,7 +3559,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3674,7 +3600,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3715,7 +3641,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3752,19 +3678,19 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>1.016857923497268</v>
       </c>
     </row>
     <row r="85">
@@ -3793,17 +3719,11 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>365</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3834,17 +3754,11 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>365</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3875,17 +3789,11 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>365</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3916,17 +3824,11 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>365</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3960,14 +3862,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>365</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4001,14 +3897,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>365</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4042,14 +3932,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>365</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4083,14 +3967,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>365</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4124,14 +4002,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>365</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4165,14 +4037,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>365</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4206,14 +4072,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>365</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4247,14 +4107,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>365</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4288,14 +4142,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>365</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4329,14 +4177,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>365</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4364,22 +4206,14 @@
         <v>368.05</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>364</v>
-      </c>
-      <c r="K99" t="n">
-        <v>365</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4407,22 +4241,14 @@
         <v>368</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>363</v>
-      </c>
-      <c r="K100" t="n">
-        <v>365</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4450,22 +4276,14 @@
         <v>367.9833333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>363</v>
-      </c>
-      <c r="K101" t="n">
-        <v>365</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4311,14 @@
         <v>367.95</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>363</v>
-      </c>
-      <c r="K102" t="n">
-        <v>365</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4536,22 +4346,14 @@
         <v>367.9166666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>363</v>
-      </c>
-      <c r="K103" t="n">
-        <v>365</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4579,22 +4381,14 @@
         <v>367.9666666666666</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>368</v>
-      </c>
-      <c r="K104" t="n">
-        <v>365</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4622,22 +4416,14 @@
         <v>368.0666666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>370</v>
-      </c>
-      <c r="K105" t="n">
-        <v>365</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4665,22 +4451,14 @@
         <v>368.1333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>370</v>
-      </c>
-      <c r="K106" t="n">
-        <v>365</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4708,22 +4486,14 @@
         <v>368.2166666666666</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>372</v>
-      </c>
-      <c r="K107" t="n">
-        <v>365</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4757,14 +4527,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>365</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4798,14 +4562,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>365</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4839,14 +4597,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>365</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4880,14 +4632,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>365</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4921,14 +4667,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>365</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4962,14 +4702,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>365</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5003,14 +4737,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>365</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5044,14 +4772,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>365</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5085,14 +4807,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>365</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5126,14 +4842,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>365</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5167,14 +4877,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>365</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5208,14 +4912,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>365</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5249,14 +4947,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>365</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5290,14 +4982,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>365</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5331,14 +5017,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>365</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5372,14 +5052,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>365</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5413,14 +5087,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>365</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5454,14 +5122,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>365</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5495,14 +5157,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>365</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5536,14 +5192,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>365</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5577,14 +5227,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>365</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5618,14 +5262,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>365</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5659,14 +5297,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>365</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5700,14 +5332,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>365</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5741,14 +5367,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>365</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5782,14 +5402,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>365</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5823,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>365</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5864,14 +5472,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>365</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5905,14 +5507,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>365</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5946,14 +5542,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>365</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5987,14 +5577,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>365</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6028,14 +5612,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>365</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6069,14 +5647,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>365</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6110,14 +5682,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>365</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6151,14 +5717,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>365</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6192,14 +5752,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>365</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6233,14 +5787,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>365</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6274,14 +5822,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>365</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6315,14 +5857,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>365</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6356,14 +5892,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>365</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6397,14 +5927,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>365</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6438,14 +5962,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>365</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6479,14 +5997,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>365</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6520,14 +6032,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>365</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6558,19 +6064,13 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>365</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>1.02513698630137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -6599,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -6634,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6669,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -8139,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -8174,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -8524,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -8559,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>

--- a/BackTest/2019-10-18 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-18 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,7 +1408,7 @@
         <v>29701.2015</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>29700.0029</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>21080.267</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>130.4904000000024</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>19175.9805</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>19416.6345</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>18966.6345</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>18966.6345</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>18058.6451</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>18240.8856</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>18308.27104474394</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3342,10 +3342,14 @@
         <v>46893.42474474394</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>363</v>
+      </c>
+      <c r="J89" t="n">
+        <v>363</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3378,8 +3382,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>363</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3411,8 +3421,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>363</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3771,14 +3787,10 @@
         <v>3258.137844743946</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>365</v>
-      </c>
-      <c r="J102" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3808,19 +3820,11 @@
         <v>3258.137844743946</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>365</v>
-      </c>
-      <c r="J103" t="n">
-        <v>365</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3849,19 +3853,11 @@
         <v>3886.553144743946</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>365</v>
-      </c>
-      <c r="J104" t="n">
-        <v>365</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3886,10 @@
         <v>3886.553144743946</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>366</v>
-      </c>
-      <c r="J105" t="n">
-        <v>366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -3927,19 +3919,11 @@
         <v>4353.948944743946</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>366</v>
-      </c>
-      <c r="J106" t="n">
-        <v>366</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3968,19 +3952,11 @@
         <v>4353.948944743946</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>367</v>
-      </c>
-      <c r="J107" t="n">
-        <v>366</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -5692,17 +5668,11 @@
         <v>35485.11497415572</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5731,17 +5701,11 @@
         <v>35563.17847415571</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5770,17 +5734,11 @@
         <v>35563.17847415571</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5813,11 +5771,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5850,11 +5804,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5887,11 +5837,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5924,11 +5870,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5961,11 +5903,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +5936,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6035,11 +5969,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6068,15 +5998,11 @@
         <v>35101.48457415569</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6109,11 +6035,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6146,11 +6068,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6179,15 +6097,11 @@
         <v>37889.60437415569</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6220,11 +6134,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6257,11 +6167,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6294,11 +6200,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6331,11 +6233,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6368,11 +6266,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6405,11 +6299,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6442,11 +6332,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6479,11 +6365,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6516,11 +6398,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6553,11 +6431,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6590,11 +6464,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6627,11 +6497,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6664,11 +6530,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6701,11 +6563,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6738,11 +6596,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6775,11 +6629,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6812,11 +6662,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6849,11 +6695,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6728,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6923,11 +6761,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6960,11 +6794,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6997,11 +6827,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +6860,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7071,11 +6893,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7108,11 +6926,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7145,11 +6959,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7178,15 +6988,11 @@
         <v>71375.58398517147</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7215,15 +7021,11 @@
         <v>71375.58398517147</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7252,15 +7054,11 @@
         <v>70796.00848517146</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7289,15 +7087,11 @@
         <v>71133.86218517147</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7326,15 +7120,11 @@
         <v>70945.13888517147</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7367,11 +7157,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7404,11 +7190,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7441,11 +7223,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7474,15 +7252,11 @@
         <v>72290.45818517148</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7511,15 +7285,11 @@
         <v>74050.83498517147</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7548,15 +7318,11 @@
         <v>60811.71838517147</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7585,15 +7351,11 @@
         <v>60811.71838517147</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7626,11 +7388,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7663,11 +7421,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7700,11 +7454,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7737,11 +7487,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7774,11 +7520,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7811,11 +7553,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7848,11 +7586,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7885,11 +7619,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7922,11 +7652,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7959,11 +7685,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7996,11 +7718,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8033,11 +7751,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8070,11 +7784,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +7817,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8144,11 +7850,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8181,11 +7883,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8218,11 +7916,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8255,11 +7949,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8292,11 +7982,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8329,11 +8015,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8366,11 +8048,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8403,11 +8081,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8440,11 +8114,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8477,11 +8147,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8514,11 +8180,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8551,11 +8213,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8588,11 +8246,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8625,11 +8279,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8662,11 +8312,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8699,11 +8345,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8736,11 +8378,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8773,11 +8411,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8810,11 +8444,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8847,11 +8477,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8884,11 +8510,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8921,11 +8543,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8958,11 +8576,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8995,11 +8609,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9032,11 +8642,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +8675,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9106,11 +8708,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9143,11 +8741,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9180,11 +8774,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9217,11 +8807,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9254,11 +8840,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9291,11 +8873,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +8906,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +8939,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9402,11 +8972,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9439,11 +9005,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9476,11 +9038,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9513,11 +9071,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9550,11 +9104,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9587,11 +9137,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9624,11 +9170,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9661,11 +9203,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9694,16 +9232,14 @@
         <v>80725.98673410766</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
       <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
@@ -9729,7 +9265,7 @@
         <v>80725.98673410766</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9762,7 +9298,7 @@
         <v>80725.98673410766</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9795,7 +9331,7 @@
         <v>80725.98673410766</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9828,7 +9364,7 @@
         <v>77310.15233410765</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9861,7 +9397,7 @@
         <v>77310.15233410765</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9894,7 +9430,7 @@
         <v>69436.40783410765</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9927,7 +9463,7 @@
         <v>66242.93933410765</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9960,7 +9496,7 @@
         <v>66242.93933410765</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9993,7 +9529,7 @@
         <v>66374.61373410765</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10026,7 +9562,7 @@
         <v>66374.61373410765</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10059,7 +9595,7 @@
         <v>66374.61373410765</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10092,7 +9628,7 @@
         <v>66374.61373410765</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10125,7 +9661,7 @@
         <v>73214.41463410766</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10158,7 +9694,7 @@
         <v>73800.60833410766</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10191,7 +9727,7 @@
         <v>71165.56223410765</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10224,7 +9760,7 @@
         <v>72388.48823410766</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10257,7 +9793,7 @@
         <v>72381.64663410766</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10290,7 +9826,7 @@
         <v>72389.52063410766</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10323,7 +9859,7 @@
         <v>72389.52063410766</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10356,7 +9892,7 @@
         <v>72389.52063410766</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10389,7 +9925,7 @@
         <v>72389.52063410766</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10422,7 +9958,7 @@
         <v>72389.52063410766</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10455,7 +9991,7 @@
         <v>73164.68743410766</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10488,7 +10024,7 @@
         <v>73073.43003410766</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10521,7 +10057,7 @@
         <v>84760.44450799801</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10554,7 +10090,7 @@
         <v>84129.08970799801</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10785,7 +10321,7 @@
         <v>82338.70190799801</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10818,7 +10354,7 @@
         <v>93897.788207998</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10851,7 +10387,7 @@
         <v>93897.788207998</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11676,7 +11212,7 @@
         <v>105694.198607998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11775,7 +11311,7 @@
         <v>104148.129407998</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11907,7 +11443,7 @@
         <v>96495.809395498</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11973,7 +11509,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12006,7 +11542,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12039,7 +11575,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12072,7 +11608,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12105,7 +11641,7 @@
         <v>114598.606082998</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12138,7 +11674,7 @@
         <v>112303.138882998</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12171,7 +11707,7 @@
         <v>101972.138882998</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12204,7 +11740,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12237,7 +11773,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12270,7 +11806,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12303,7 +11839,7 @@
         <v>102930.143982998</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12336,7 +11872,7 @@
         <v>102930.143982998</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12369,7 +11905,7 @@
         <v>104299.526382998</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12402,7 +11938,7 @@
         <v>104930.268982998</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12435,7 +11971,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12468,7 +12004,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12501,7 +12037,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12798,7 +12334,7 @@
         <v>100345.539282998</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12897,7 +12433,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12930,7 +12466,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12963,7 +12499,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12996,7 +12532,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13029,7 +12565,7 @@
         <v>58859.67658299796</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13062,7 +12598,7 @@
         <v>58859.67658299796</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13095,7 +12631,7 @@
         <v>57518.12678299796</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13128,7 +12664,7 @@
         <v>57518.12678299796</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13161,7 +12697,7 @@
         <v>57518.12678299796</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13194,7 +12730,7 @@
         <v>55071.45668299796</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13227,7 +12763,7 @@
         <v>55071.45668299796</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13260,7 +12796,7 @@
         <v>55547.29518299796</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13293,7 +12829,7 @@
         <v>54937.62778299796</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13326,7 +12862,7 @@
         <v>54969.77318299796</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13359,7 +12895,7 @@
         <v>54969.77318299796</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13392,7 +12928,7 @@
         <v>54944.96558299796</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13425,7 +12961,7 @@
         <v>55058.52138299796</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13458,7 +12994,7 @@
         <v>54791.57688299796</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13491,7 +13027,7 @@
         <v>56240.71928299796</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13524,7 +13060,7 @@
         <v>55429.51158299796</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13557,7 +13093,7 @@
         <v>55541.15528299796</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13755,7 +13291,7 @@
         <v>52394.50958299796</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13887,7 +13423,7 @@
         <v>52557.32265182913</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13920,7 +13456,7 @@
         <v>52557.32265182913</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13953,7 +13489,7 @@
         <v>52557.32265182913</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13986,7 +13522,7 @@
         <v>52557.32265182913</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14019,7 +13555,7 @@
         <v>52557.32265182913</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14052,7 +13588,7 @@
         <v>52557.32265182913</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14085,7 +13621,7 @@
         <v>52636.86405182914</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14118,7 +13654,7 @@
         <v>52636.86405182914</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14151,7 +13687,7 @@
         <v>52540.44335182913</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14184,7 +13720,7 @@
         <v>52540.44335182913</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14217,7 +13753,7 @@
         <v>52445.22195182913</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14250,7 +13786,7 @@
         <v>52881.7047536426</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14283,7 +13819,7 @@
         <v>51544.6057536426</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14316,7 +13852,7 @@
         <v>49160.5137536426</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14349,7 +13885,7 @@
         <v>49160.5137536426</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14382,7 +13918,7 @@
         <v>51311.86620977837</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14415,7 +13951,7 @@
         <v>51311.86620977837</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14448,7 +13984,7 @@
         <v>51298.89870977838</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14481,7 +14017,7 @@
         <v>51298.89870977838</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14580,7 +14116,7 @@
         <v>42377.40810977838</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14613,7 +14149,7 @@
         <v>43268.40810977838</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14646,7 +14182,7 @@
         <v>52639.60020977838</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14679,7 +14215,7 @@
         <v>52732.17970977838</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14712,7 +14248,7 @@
         <v>53497.61198905927</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14745,7 +14281,7 @@
         <v>53497.61198905927</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14778,7 +14314,7 @@
         <v>53989.33425364261</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14811,7 +14347,7 @@
         <v>53989.33425364261</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14844,7 +14380,7 @@
         <v>44641.57015364261</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14877,7 +14413,7 @@
         <v>46182.28325364261</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14910,7 +14446,7 @@
         <v>46118.65745364261</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14943,7 +14479,7 @@
         <v>45753.14465364261</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14976,7 +14512,7 @@
         <v>45753.14465364261</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15009,7 +14545,7 @@
         <v>30035.58135364261</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15042,7 +14578,7 @@
         <v>30104.11315364261</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15075,7 +14611,7 @@
         <v>30363.02185364261</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15306,7 +14842,7 @@
         <v>72556.1797536426</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15372,7 +14908,7 @@
         <v>67688.7099536426</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15405,7 +14941,7 @@
         <v>67688.7099536426</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15438,7 +14974,7 @@
         <v>67688.7099536426</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15471,7 +15007,7 @@
         <v>67688.7099536426</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15504,7 +15040,7 @@
         <v>67688.7099536426</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15603,7 +15139,7 @@
         <v>61574.3064536426</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15702,7 +15238,7 @@
         <v>61569.5347536426</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15900,7 +15436,7 @@
         <v>60332.2513536426</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15966,7 +15502,7 @@
         <v>64065.2559536426</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16032,7 +15568,7 @@
         <v>63442.9412536426</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16098,7 +15634,7 @@
         <v>51189.9809536426</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16131,7 +15667,7 @@
         <v>51166.58245364259</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16164,7 +15700,7 @@
         <v>35196.9890536426</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16197,7 +15733,7 @@
         <v>35225.9849536426</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16230,7 +15766,7 @@
         <v>35225.9849536426</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16296,7 +15832,7 @@
         <v>33361.1998536426</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16329,7 +15865,7 @@
         <v>33555.5727536426</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16362,7 +15898,7 @@
         <v>33555.5727536426</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16395,7 +15931,7 @@
         <v>33555.5727536426</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16428,7 +15964,7 @@
         <v>31987.2214536426</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16461,7 +15997,7 @@
         <v>28095.8263536426</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16494,7 +16030,7 @@
         <v>28548.9607536426</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16527,7 +16063,7 @@
         <v>28548.9607536426</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16560,7 +16096,7 @@
         <v>28548.9607536426</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16626,7 +16162,7 @@
         <v>28528.12935364259</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -19343,6 +18879,6 @@
       <c r="M559" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-18 BackTest ZRX.xlsx
@@ -1408,7 +1408,7 @@
         <v>29701.2015</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>29700.0029</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>21080.267</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>130.4904000000024</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>19175.9805</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>19416.6345</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>18966.6345</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>18966.6345</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>18058.6451</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>18240.8856</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>18308.27104474394</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3025,10 +3025,14 @@
         <v>12822.12824474394</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>361</v>
+      </c>
+      <c r="J80" t="n">
+        <v>361</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3058,11 +3062,19 @@
         <v>12022.12824474394</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>365</v>
+      </c>
+      <c r="J81" t="n">
+        <v>361</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3106,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>361</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3342,14 +3360,10 @@
         <v>46893.42474474394</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>363</v>
-      </c>
-      <c r="J89" t="n">
-        <v>363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3382,14 +3396,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>363</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3421,14 +3429,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>363</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3886,10 +3888,14 @@
         <v>3886.553144743946</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>366</v>
+      </c>
+      <c r="J105" t="n">
+        <v>366</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -3919,11 +3925,19 @@
         <v>4353.948944743946</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>366</v>
+      </c>
+      <c r="J106" t="n">
+        <v>366</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3952,11 +3966,19 @@
         <v>4353.948944743946</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>367</v>
+      </c>
+      <c r="J107" t="n">
+        <v>366</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3985,10 +4007,14 @@
         <v>4298.082744743945</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>367</v>
+      </c>
+      <c r="J108" t="n">
+        <v>367</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -4018,11 +4044,19 @@
         <v>4411.303344743945</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>366</v>
+      </c>
+      <c r="J109" t="n">
+        <v>367</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +4085,19 @@
         <v>4353.914544743945</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>368</v>
+      </c>
+      <c r="J110" t="n">
+        <v>367</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4150,10 +4192,14 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>365</v>
+      </c>
+      <c r="J113" t="n">
+        <v>365</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4183,11 +4229,19 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>366</v>
+      </c>
+      <c r="J114" t="n">
+        <v>365</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4216,11 +4270,19 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>366</v>
+      </c>
+      <c r="J115" t="n">
+        <v>365</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4249,10 +4311,14 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>366</v>
+      </c>
+      <c r="J116" t="n">
+        <v>366</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4282,11 +4348,19 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>366</v>
+      </c>
+      <c r="J117" t="n">
+        <v>366</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4318,8 +4392,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>366</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4348,10 +4428,14 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>366</v>
+      </c>
+      <c r="J119" t="n">
+        <v>366</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4381,11 +4465,19 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>366</v>
+      </c>
+      <c r="J120" t="n">
+        <v>366</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +4506,19 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>366</v>
+      </c>
+      <c r="J121" t="n">
+        <v>366</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4447,10 +4547,14 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>366</v>
+      </c>
+      <c r="J122" t="n">
+        <v>366</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4480,11 +4584,19 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>366</v>
+      </c>
+      <c r="J123" t="n">
+        <v>366</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4513,11 +4625,19 @@
         <v>15514.36594474394</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>366</v>
+      </c>
+      <c r="J124" t="n">
+        <v>366</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4546,10 +4666,14 @@
         <v>15777.16884474394</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>366</v>
+      </c>
+      <c r="J125" t="n">
+        <v>366</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -4579,11 +4703,19 @@
         <v>17510.05874474394</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>367</v>
+      </c>
+      <c r="J126" t="n">
+        <v>366</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +4744,19 @@
         <v>17073.19754474394</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>368</v>
+      </c>
+      <c r="J127" t="n">
+        <v>366</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4645,10 +4785,14 @@
         <v>17073.19754474394</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>367</v>
+      </c>
+      <c r="J128" t="n">
+        <v>367</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4678,11 +4822,19 @@
         <v>17308.30414474394</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>367</v>
+      </c>
+      <c r="J129" t="n">
+        <v>367</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +4863,19 @@
         <v>22507.87154474394</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>369</v>
+      </c>
+      <c r="J130" t="n">
+        <v>367</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4744,10 +4904,14 @@
         <v>22507.87154474394</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>370</v>
+      </c>
+      <c r="J131" t="n">
+        <v>370</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -4777,11 +4941,19 @@
         <v>25203.28924474394</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>370</v>
+      </c>
+      <c r="J132" t="n">
+        <v>370</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4810,11 +4982,19 @@
         <v>25203.28924474394</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>371</v>
+      </c>
+      <c r="J133" t="n">
+        <v>370</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5074,10 +5254,14 @@
         <v>38911.33867415571</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>373</v>
+      </c>
+      <c r="J141" t="n">
+        <v>373</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5110,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>373</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5143,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>373</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5338,10 +5534,14 @@
         <v>43341.25767415571</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>373</v>
+      </c>
+      <c r="J149" t="n">
+        <v>373</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
@@ -5371,11 +5571,19 @@
         <v>36422.13947415572</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>369</v>
+      </c>
+      <c r="J150" t="n">
+        <v>373</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5404,11 +5612,19 @@
         <v>36422.13947415572</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>365</v>
+      </c>
+      <c r="J151" t="n">
+        <v>373</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5437,11 +5653,19 @@
         <v>36417.02867415571</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>365</v>
+      </c>
+      <c r="J152" t="n">
+        <v>373</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +5694,19 @@
         <v>39273.39827415571</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>364</v>
+      </c>
+      <c r="J153" t="n">
+        <v>373</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +5735,19 @@
         <v>39325.76097415571</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>365</v>
+      </c>
+      <c r="J154" t="n">
+        <v>373</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +5776,19 @@
         <v>38833.76097415571</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>366</v>
+      </c>
+      <c r="J155" t="n">
+        <v>373</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5569,11 +5817,19 @@
         <v>38324.57367415571</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>365</v>
+      </c>
+      <c r="J156" t="n">
+        <v>373</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5602,11 +5858,19 @@
         <v>35958.71497415572</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>364</v>
+      </c>
+      <c r="J157" t="n">
+        <v>373</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +5899,19 @@
         <v>36453.71497415572</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>363</v>
+      </c>
+      <c r="J158" t="n">
+        <v>373</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5668,11 +5940,19 @@
         <v>35485.11497415572</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>364</v>
+      </c>
+      <c r="J159" t="n">
+        <v>373</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5701,11 +5981,19 @@
         <v>35563.17847415571</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>362</v>
+      </c>
+      <c r="J160" t="n">
+        <v>373</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5734,11 +6022,19 @@
         <v>35563.17847415571</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>363</v>
+      </c>
+      <c r="J161" t="n">
+        <v>373</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +6066,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>373</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +6105,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>373</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +6144,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>373</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6183,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>373</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5902,8 +6222,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>373</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +6261,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>373</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5968,8 +6300,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>373</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +6336,17 @@
         <v>35101.48457415569</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>373</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6034,8 +6378,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>373</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6067,8 +6417,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>373</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +6453,17 @@
         <v>37889.60437415569</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>373</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6133,8 +6495,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>373</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6166,8 +6534,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>373</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6573,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>373</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6612,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>373</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6265,8 +6651,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>373</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6298,8 +6690,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>373</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6331,8 +6729,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>373</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6364,8 +6768,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>373</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6397,8 +6807,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>373</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6430,8 +6846,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>373</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6463,8 +6885,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>373</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6496,8 +6924,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>373</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6529,8 +6963,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>373</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6562,8 +7002,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>373</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6595,8 +7041,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>373</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6628,8 +7080,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>373</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6661,8 +7119,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>373</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6694,8 +7158,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>373</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6727,8 +7197,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>373</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6760,8 +7236,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>373</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +7275,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>373</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6826,8 +7314,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>373</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6859,8 +7353,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>373</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6892,8 +7392,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>373</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6925,8 +7431,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>373</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6958,8 +7470,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>373</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6988,11 +7506,17 @@
         <v>71375.58398517147</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>373</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7021,11 +7545,17 @@
         <v>71375.58398517147</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>373</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7054,11 +7584,17 @@
         <v>70796.00848517146</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>373</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7087,11 +7623,17 @@
         <v>71133.86218517147</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>373</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7120,11 +7662,17 @@
         <v>70945.13888517147</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>373</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7156,8 +7704,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>373</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7189,8 +7743,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>373</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7222,8 +7782,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>373</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7252,11 +7818,17 @@
         <v>72290.45818517148</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>373</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7285,11 +7857,17 @@
         <v>74050.83498517147</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>373</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7318,11 +7896,17 @@
         <v>60811.71838517147</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>373</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7351,11 +7935,17 @@
         <v>60811.71838517147</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>373</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7977,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>373</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +8016,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>373</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7453,8 +8055,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>373</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7486,8 +8094,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>373</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +8133,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>373</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7552,8 +8172,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>373</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +8211,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>373</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +8250,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>373</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7651,8 +8289,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>373</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7684,8 +8328,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>373</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7717,8 +8367,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>373</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7750,8 +8406,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>373</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7783,8 +8445,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>373</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7816,8 +8484,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>373</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +8523,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>373</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +8562,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>373</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7915,8 +8601,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>373</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7948,8 +8640,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>373</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7981,8 +8679,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>373</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8014,8 +8718,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>373</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8047,8 +8757,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>373</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8080,8 +8796,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>373</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8113,8 +8835,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>373</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8146,8 +8874,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>373</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8179,8 +8913,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>373</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8212,8 +8952,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>373</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8245,8 +8991,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>373</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8278,8 +9030,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>373</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8311,8 +9069,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>373</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8344,8 +9108,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>373</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8377,8 +9147,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>373</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8410,8 +9186,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>373</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8443,8 +9225,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>373</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8476,8 +9264,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>373</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8509,8 +9303,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>373</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8542,8 +9342,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>373</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8575,8 +9381,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>373</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8608,8 +9420,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>373</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8641,8 +9459,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>373</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8674,8 +9498,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>373</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8707,8 +9537,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>373</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8740,8 +9576,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>373</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8773,8 +9615,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>373</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8806,8 +9654,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>373</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8839,8 +9693,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>373</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8872,8 +9732,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>373</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8905,8 +9771,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>373</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8938,8 +9810,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>373</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8971,8 +9849,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>373</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9004,8 +9888,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>373</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9037,8 +9927,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>373</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9070,8 +9966,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>373</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9103,8 +10005,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>373</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9136,8 +10044,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>373</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9169,8 +10083,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>373</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9202,8 +10122,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>373</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9235,8 +10161,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>373</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9268,8 +10200,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>373</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9301,8 +10239,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>373</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9334,8 +10278,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>373</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9367,8 +10317,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>373</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9400,8 +10356,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>373</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9433,8 +10395,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>373</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9466,8 +10434,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>373</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9499,8 +10473,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>373</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9532,8 +10512,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>373</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9565,8 +10551,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>373</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9598,8 +10590,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>373</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9631,8 +10629,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>373</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +10668,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>373</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9697,8 +10707,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>373</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +10746,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>373</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +10785,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>373</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9796,8 +10824,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>373</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9829,8 +10863,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>373</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9862,8 +10902,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>373</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9895,8 +10941,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>373</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9928,8 +10980,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>373</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9961,8 +11019,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>373</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +11058,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>373</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10027,8 +11097,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>373</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10060,8 +11136,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>373</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10093,8 +11175,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>373</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10126,8 +11214,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>373</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10159,8 +11253,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>373</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10192,8 +11292,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>373</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10225,8 +11331,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>373</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10258,8 +11370,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>373</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10291,8 +11409,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>373</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10324,8 +11448,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>373</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10357,8 +11487,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>373</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10390,8 +11526,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>373</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10423,8 +11565,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>373</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10456,8 +11604,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>373</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10489,8 +11643,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>373</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10522,8 +11682,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>373</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10555,8 +11721,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>373</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10588,8 +11760,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>373</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10621,8 +11799,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>373</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10654,8 +11838,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>373</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10687,8 +11877,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>373</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10720,8 +11916,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>373</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10753,8 +11955,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>373</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10786,8 +11994,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>373</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10819,8 +12033,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>373</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +12072,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>373</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10885,8 +12111,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>373</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10918,8 +12150,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>373</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10951,8 +12189,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>373</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10984,8 +12228,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>373</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11017,8 +12267,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>373</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11050,8 +12306,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>373</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11083,8 +12345,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>373</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11113,13 +12381,19 @@
         <v>105814.857907998</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>373</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L324" t="n">
-        <v>1</v>
+        <v>1.02985254691689</v>
       </c>
       <c r="M324" t="inlineStr"/>
     </row>
@@ -11146,7 +12420,7 @@
         <v>105664.857907998</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11179,7 +12453,7 @@
         <v>105694.198607998</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11212,7 +12486,7 @@
         <v>105694.198607998</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11245,7 +12519,7 @@
         <v>104078.258507998</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11278,7 +12552,7 @@
         <v>102130.129407998</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11311,7 +12585,7 @@
         <v>104148.129407998</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11344,7 +12618,7 @@
         <v>104328.235807998</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11377,7 +12651,7 @@
         <v>96662.640495498</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11410,7 +12684,7 @@
         <v>96662.640495498</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11542,7 +12816,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11575,7 +12849,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11608,7 +12882,7 @@
         <v>103887.427382998</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11641,7 +12915,7 @@
         <v>114598.606082998</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11674,7 +12948,7 @@
         <v>112303.138882998</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11707,7 +12981,7 @@
         <v>101972.138882998</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11740,7 +13014,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11773,7 +13047,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11806,7 +13080,7 @@
         <v>102377.088882998</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11839,7 +13113,7 @@
         <v>102930.143982998</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11872,7 +13146,7 @@
         <v>102930.143982998</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11905,7 +13179,7 @@
         <v>104299.526382998</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11938,7 +13212,7 @@
         <v>104930.268982998</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11971,7 +13245,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12004,7 +13278,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12037,7 +13311,7 @@
         <v>102646.249982998</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12070,7 +13344,7 @@
         <v>101961.328582998</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12103,7 +13377,7 @@
         <v>98840.90268299798</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12136,7 +13410,7 @@
         <v>99383.20158299798</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12169,7 +13443,7 @@
         <v>99383.20158299798</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12202,7 +13476,7 @@
         <v>97950.23178299797</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12235,7 +13509,7 @@
         <v>97769.08618299797</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12268,7 +13542,7 @@
         <v>97769.08618299797</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12301,7 +13575,7 @@
         <v>98069.08618299797</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12334,7 +13608,7 @@
         <v>100345.539282998</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12367,7 +13641,7 @@
         <v>82869.98038299796</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12400,7 +13674,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12433,7 +13707,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12466,7 +13740,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12499,7 +13773,7 @@
         <v>69822.98858299796</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
